--- a/artifacts/recipes/new_data/allrecipescom/dinner/dinner_quick-and-easy (1).xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/dinner/dinner_quick-and-easy (1).xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -83,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -117,80 +490,48 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699662842-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Quick and Easy Dinners for One</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699662850-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/kUOK8KcFLqympC2mYVFaWE2lsuk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1007x0:1009x2):format(webp)/6934258-ac3551b83b9d41ddbf031ccc5d784433.jpg"
@@ -203,59 +544,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/275362/garlic-bread-grilled-cheese/</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Garlic Bread Grilled Cheese</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n2 \n\n\nYield:\n2 sandwiches"}]</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 tablespoons unsalted butter, softened\n\n\n2 tablespoons chopped fresh parsley\n\n\n1 tablespoon grated Pecorino Romano cheese\n\n\n1 clove garlic, minced\n\n\n4 slices white bread\n\n\n4 slices provolone cheese\n\n\n½ cup shredded mozzarella cheese"}]</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 tablespoons unsalted butter, softened\n\n\n2 tablespoons chopped fresh parsley\n\n\n1 tablespoon grated Pecorino Romano cheese\n\n\n1 clove garlic, minced\n\n\n4 slices white bread\n\n\n4 slices provolone cheese\n\n\n½ cup shredded mozzarella cheese'}]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat a large skillet over medium heat."},{"recipe_directions":"Combine butter, parsley, Pecorino Romano cheese, and garlic in a small bowl. Stir to combine."},{"recipe_directions":"Lightly coat 1 side of each bread slice with the butter mixture. Flip bread and top 2 slices evenly with provolone cheese and mozzarella cheese. Cover with remaining bread slices, buttered-sides up."},{"recipe_directions":"Place sandwiches into the hot skillet. Cook until golden brown on one side, 3 to 4 minutes. Flip and cook until golden brown on the second side and cheese has melted, 3 to 4 minutes more. Cut each sandwich in half and serve."}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Sandwich Recipes"},{"recipe_tags":"Grilled Cheese"}]</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"625\nCalories\n\n\n45g \nFat\n\n\n28g \nCarbs\n\n\n27g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699662861-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Nf9xwdZWCY719x0pIRUbBgx2cVk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1014268-ff386d1e6cd1441cb0333dad71e29599.jpg"
@@ -268,59 +605,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/74567/spicy-garlic-salmon/</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Spicy Garlic Salmon</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cloves garlic, crushed\n\n\n1  dried red chile pepper\n\n\n1 tablespoon olive oil\n\n\n1 teaspoon whole grain mustard\n\n\n2 tablespoons fresh lime juice\n\n\n  sea salt to taste\n\n\n  freshly ground black pepper\n\n\n2 (6 ounce) fillets salmon"}]</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cloves garlic, crushed\n\n\n1  dried red chile pepper\n\n\n1 tablespoon olive oil\n\n\n1 teaspoon whole grain mustard\n\n\n2 tablespoons fresh lime juice\n\n\n  sea salt to taste\n\n\n  freshly ground black pepper\n\n\n2 (6 ounce) fillets salmon'}]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 400 degrees F (200 degrees C). Line a medium baking dish with aluminum foil. Lightly grease foil."},{"recipe_directions":"With a mortar and pestle, grind together the garlic, chile pepper, and olive oil. Mix into a thick paste with the mustard, lime juice, salt, and pepper. Place the salmon fillets in the prepared baking dish, and coat with the paste mixture."},{"recipe_directions":"Bake salmon 12 to 15 minutes in the preheated oven, or until fish is easily flaked with a fork."}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Main Dishes"},{"recipe_tags":"Seafood Main Dishes"},{"recipe_tags":"Salmon"},{"recipe_tags":"Baked Salmon Recipes"}]</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"345\nCalories\n\n\n23g \nFat\n\n\n3g \nCarbs\n\n\n30g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699662869-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/QKRkxqWJLJqaTqv_NwHpONWoNlo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2768522-b5cd813f2db64c5e8526292ba64aad1e.jpg"
@@ -333,59 +666,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/202760/dominican-style-oatmeal/</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Dominican Style Oatmeal</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups milk\n\n\n½ cup quick cooking oats\n\n\n2 tablespoons white sugar\n\n\n¼ teaspoon ground cinnamon\n\n\n1 pinch ground nutmeg\n\n\n1 pinch salt\n\n\n¼ teaspoon lemon zest (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups milk\n\n\n½ cup quick cooking oats\n\n\n2 tablespoons white sugar\n\n\n¼ teaspoon ground cinnamon\n\n\n1 pinch ground nutmeg\n\n\n1 pinch salt\n\n\n¼ teaspoon lemon zest (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine milk, oats, sugar, cinnamon, nutmeg, and salt in a saucepan. Add lemon peel, if using. Bring to a boil, stirring constantly for 2 minutes."}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Cereals"},{"recipe_tags":"Oatmeal Recipes"}]</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"220\nCalories\n\n\n5g \nFat\n\n\n35g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699662876-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/MJiisBgUkWKhfv4ASiWqEJEMr0o=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/4559041-flatbread-breakfast-pizza-Christina-4x3-1-cfa77e4b950e4528a2954516d28c03a5.jpg"
@@ -399,59 +728,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/259219/flatbread-breakfast-pizza/</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Flatbread Breakfast Pizza</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n13 mins\n\n\nTotal Time:\n28 mins\n\n\nServings:\n2 \n\n\nYield:\n1 breakfast flatbread"}]</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  eggs, or as needed\n\n\n1 ½ tablespoons milk\n\n\n  salt and ground pepper to taste\n\n\n  cooking spray\n\n\n¼ cup cooked sausage, crumbled\n\n\n3 slices cooked bacon, cut into pieces\n\n\n½ cup diced tomatoes, or to taste (Optional)\n\n\n½ cup diced mushrooms, or to taste (Optional)\n\n\n1  prepared flatbread\n\n\n¼ cup shredded Monterey Jack cheese"}]</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  eggs, or as needed\n\n\n1 ½ tablespoons milk\n\n\n  salt and ground pepper to taste\n\n\n  cooking spray\n\n\n¼ cup cooked sausage, crumbled\n\n\n3 slices cooked bacon, cut into pieces\n\n\n½ cup diced tomatoes, or to taste (Optional)\n\n\n½ cup diced mushrooms, or to taste (Optional)\n\n\n1  prepared flatbread\n\n\n¼ cup shredded Monterey Jack cheese'}]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 425 degrees F (220 degrees C)."},{"recipe_directions":"Whisk eggs and milk together in a bowl; season with salt and pepper."},{"recipe_directions":"Spray a large skillet with cooking spray; heat over medium-high heat. Pour egg mixture into the skillet; cook and stir until eggs are set, about 5 minutes. Add sausage, bacon, tomatoes, and mushrooms, and cook until vegetables are soft, about 3 minutes."},{"recipe_directions":"Spread scrambled mixture over flatbread; top with shredded Monterey Jack cheese."},{"recipe_directions":"Bake flatbread pizza in the preheated oven until the cheese is bubbly and underside of the crust is golden brown, 5 to 7 minutes."}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"},{"recipe_tags":"Breakfast Pizza Recipes"}]</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"560\nCalories\n\n\n24g \nFat\n\n\n68g \nCarbs\n\n\n28g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699662881-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Q59vBJpVY5YBiGAS308XFZoyoHE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1892397-091dd54a738547f8a9e17ac1756f0947.jpg"
@@ -464,59 +789,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/240391/baja-style-chicken-bowl/</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Baja-Style Chicken Bowl</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 teaspoons olive oil\n\n\n4 ounces diced cooked chicken\n\n\n½ cup frozen corn\n\n\n1  red bell pepper, sliced\n\n\n  salt and ground black pepper to taste\n\n\n1 cup cooked brown rice\n\n\n½ cup salsa\n\n\n¼ cup shredded Monterey Jack cheese"}]</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 teaspoons olive oil\n\n\n4 ounces diced cooked chicken\n\n\n½ cup frozen corn\n\n\n1  red bell pepper, sliced\n\n\n  salt and ground black pepper to taste\n\n\n1 cup cooked brown rice\n\n\n½ cup salsa\n\n\n¼ cup shredded Monterey Jack cheese'}]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a skillet over medium heat. Cook and stir chicken, corn, and red pepper in hot oil until heated through and pepper is slightly softened, about 5 minutes. Season with salt and pepper."},{"recipe_directions":"Spoon rice into 2 bowls, divide chicken mixture between the two bowls, and top each with salsa and Monterey Jack cheese."}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Bowls"}]</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"379\nCalories\n\n\n15g \nFat\n\n\n39g \nCarbs\n\n\n24g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699662887-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/l5O08vOtDijwbT6AgZ3lyf2G9m8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/565672-f2a04f6354854d42b5b48d8bd4d3b8cf.jpg"
@@ -529,59 +850,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/72012/onion-pan-fried-pork-chops/</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Onion Pan-Fried Pork Chops</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (1 ounce) envelope dry onion soup mix\n\n\n2  pork chops\n\n\n¼ cup all-purpose flour\n\n\n1 cup olive oil for frying"}]</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (1 ounce) envelope dry onion soup mix\n\n\n2  pork chops\n\n\n¼ cup all-purpose flour\n\n\n1 cup olive oil for frying'}]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Before opening the onion soup mix, use your hands to crush the larger bits of onion in the packet. Open the packet, and pour the mix into a shallow bowl. Stir in the flour."},{"recipe_directions":"Heat the oil in a heavy skillet over medium heat. The oil is hot enough when a pinch of the flour mixture sizzles when tossed into the oil. Coat pork chops in the onion soup mixture, and shake off the excess. Carefully place in the hot oil. Turn chops over after about 30 seconds to quickly sear both sides. Cook for about 4 minutes per side, or to desired degree of doneness."}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Main Dishes"},{"recipe_tags":"Pork"},{"recipe_tags":"Pork Chop Recipes"},{"recipe_tags":"Pan Fried"}]</t>
         </is>
       </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"317\nCalories\n\n\n19g \nFat\n\n\n21g \nCarbs\n\n\n17g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699662893-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/6WUfbTr0BuMQp-vCvWMyGAJ-lzs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2063x0:2065x2):format(webp)/5437904-8d54d81d509d489c959e371bd7b6fc99.jpg"
@@ -594,59 +911,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/220123/black-bean-breakfast-bowl/</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Black Bean Breakfast Bowl</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons olive oil\n\n\n4  eggs, beaten\n\n\n1 (15 ounce) can black beans, drained and rinsed\n\n\n1  avocado, peeled and sliced\n\n\n¼ cup salsa\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons olive oil\n\n\n4  eggs, beaten\n\n\n1 (15 ounce) can black beans, drained and rinsed\n\n\n1  avocado, peeled and sliced\n\n\n¼ cup salsa\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat olive oil in a small pan over medium heat. Cook and stir eggs until eggs are set, 3 to 5 minutes."},{"recipe_directions":"Place black beans in a microwave-safe bowl. Heat on High in the microwave until warm, about 1 minute."},{"recipe_directions":"Divide warmed black beans between two bowls."},{"recipe_directions":"Top each bowl with scrambled eggs, avocado, and salsa. Season with salt and black pepper."}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"},{"recipe_tags":"Scrambled"}]</t>
         </is>
       </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"625\nCalories\n\n\n39g \nFat\n\n\n47g \nCarbs\n\n\n28g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699662899-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/abbA7qyIbQPjUKhaqI961giC7vQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/382210-dd7e914a849a4d8295ab8bba76416ca8.jpg"
@@ -659,59 +972,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/203769/grilled-salmon-sandwich-with-dill-sauce/</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Grilled Salmon Sandwich with Dill Sauce</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n2 \n\n\nYield:\n2 sandwiches"}]</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 slices bacon\n\n\n1 (1 pound) fillet salmon, cut into 2 portions\n\n\n1 tablespoon olive oil\n\n\n⅓ cup mayonnaise\n\n\n1 teaspoon dried dill weed\n\n\n1 teaspoon freshly grated lemon zest\n\n\n4 slices country-style bread, toasted\n\n\n4 slices tomato\n\n\n2  green leaf lettuce leaves"}]</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 slices bacon\n\n\n1 (1 pound) fillet salmon, cut into 2 portions\n\n\n1 tablespoon olive oil\n\n\n⅓ cup mayonnaise\n\n\n1 teaspoon dried dill weed\n\n\n1 teaspoon freshly grated lemon zest\n\n\n4 slices country-style bread, toasted\n\n\n4 slices tomato\n\n\n2  green leaf lettuce leaves'}]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cook the bacon in a large, deep skillet over medium-high heat until evenly browned, about 10 minutes. Drain the bacon slices on a paper towel-lined plate."},{"recipe_directions":"Preheat an outdoor grill for medium-high heat and lightly oil the grate. Evenly coat the salmon with the olive oil."},{"recipe_directions":"Cook the salmon on the preheated grill with the skin side down for about 5 minutes before flipping and cooking on the other side until the skin can easily be lifted off the flesh, about 5 minutes more. Flip the salmon once more and continue cooking until the salmon flakes easily with a fork, another 2 to 3 minutes."},{"recipe_directions":"Whisk the mayonnaise, dill, and lemon zest together in a small bowl; divide between 2 of the toasted bread slices. Top each with 1 portion of cooked salmon, 2 tomato slices, 2 bacon slices, 1 lettuce leaf, and a remaining slice of toasted bread."}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Seafood"},{"recipe_tags":"Fish"},{"recipe_tags":"Salmon"}]</t>
         </is>
       </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"931\nCalories\n\n\n67g \nFat\n\n\n30g \nCarbs\n\n\n51g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699662906-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/XsHXFLSIa7IK3p1C8cvJS4KBSFs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1120924-luckys-quickie-chickie-France-C-4x3-1-7deff8e871a643ada85e641f2708b816.jpg"
@@ -725,59 +1034,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/234415/luckys-quickie-chickie/</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Lucky's Quickie Chickie</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 teaspoons olive oil\n\n\n6 ounces chicken tenderloin strips\n\n\n¼ teaspoon salt\n\n\n⅛ teaspoon freshly ground black pepper\n\n\n2 tablespoons chopped fresh basil\n\n\n1 ½ teaspoons honey\n\n\n1 ½ teaspoons balsamic vinegar, or more to taste"}]</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 teaspoons olive oil\n\n\n6 ounces chicken tenderloin strips\n\n\n¼ teaspoon salt\n\n\n⅛ teaspoon freshly ground black pepper\n\n\n2 tablespoons chopped fresh basil\n\n\n1 ½ teaspoons honey\n\n\n1 ½ teaspoons balsamic vinegar, or more to taste'}]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat olive oil in a nonstick skillet over medium-high heat. Season chicken with salt and pepper. Cook and stir chicken in the hot oil until chicken is no longer pink in the center, about 3 to 5 minutes. Stir basil, honey, and balsamic vinegar into chicken and cook for 1 more minute."},{"recipe_directions":""}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Chicken"},{"recipe_tags":"Chicken Breast"},{"recipe_tags":"Pan-Fried Chicken"}]</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"157\nCalories\n\n\n7g \nFat\n\n\n5g \nCarbs\n\n\n18g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699662911-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/zp2cEVEy2QFznPMdnwIjWx0mSFo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1823x0:1825x2):format(webp)/6273995-a69105430f054ff0a80f77e9ed999522.jpg"
@@ -790,59 +1095,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/269715/salmon-with-garlic-butter-sauce/</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Salmon with Garlic-Butter Sauce</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 ounces butter\n\n\n4 cloves garlic, crushed\n\n\n  salt and ground black pepper to taste\n\n\n1 pinch dried oregano, or to taste\n\n\n2  salmon steaks"}]</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 ounces butter\n\n\n4 cloves garlic, crushed\n\n\n  salt and ground black pepper to taste\n\n\n1 pinch dried oregano, or to taste\n\n\n2  salmon steaks'}]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Place butter in a microwave-safe bowl and melt in the microwave, about 30 seconds. Add crushed garlic to butter and stir. Season sauce with salt, pepper, and oregano."},{"recipe_directions":"Place salmon fillets on a large sheet of aluminum foil and pour sauce on top. Wrap tightly to enclose; place on a baking sheet."},{"recipe_directions":"Bake in the preheated oven until fish flakes easily with a fork, about 20 minutes."}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Main Dishes"},{"recipe_tags":"Seafood Main Dishes"},{"recipe_tags":"Salmon"},{"recipe_tags":"Baked Salmon Recipes"}]</t>
         </is>
       </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"496\nCalories\n\n\n45g \nFat\n\n\n2g \nCarbs\n\n\n21g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699662918-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Ci2piY36Gr7cZLSu3J47JKHLeus=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/9058131-42eb1190a90249e79af088f769b9e42b.jpg"
@@ -855,59 +1156,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/85001/scrambled-eggs-and-tomatoes/</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Scrambled Eggs and Tomatoes</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  large eggs, beaten\n\n\n2  tomatoes, coarsely chopped\n\n\n1 ½ teaspoons sugar\n\n\n  salt to taste\n\n\n1 dash soy sauce"}]</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  large eggs, beaten\n\n\n2  tomatoes, coarsely chopped\n\n\n1 ½ teaspoons sugar\n\n\n  salt to taste\n\n\n1 dash soy sauce'}]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a skillet over medium heat, scramble eggs until almost done. Remove to a plate."},{"recipe_directions":"Return skillet to medium heat, and stir in tomatoes. Cook 2 to 3 minutes. Stir in sugar, salt, and soy. Return eggs to skillet; cook, stirring, about 1 minute more."}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"},{"recipe_tags":"Scrambled"}]</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"94\nCalories\n\n\n5g \nFat\n\n\n5g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699662924-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/CqdjSYk4Bgpn677I1R69jPq-RdY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3761621-350f9eeff00b43ad8476a83715ca6f6a.jpg"
@@ -920,59 +1217,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/254438/tuna-panini-melt/</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Tuna Panini Melt</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n3 mins\n\n\nTotal Time:\n13 mins\n\n\nServings:\n2 \n\n\nYield:\n2 sandwiches"}]</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (5 ounce) can solid white albacore tuna in water (such as Bumble Bee®)\n\n\n1 tablespoon mayonnaise\n\n\n1 tablespoon balsamic vinegar\n\n\n1 tablespoon chopped onion\n\n\n1  dill pickle, chopped\n\n\n4 slices sourdough bread\n\n\n2 slices American cheese"}]</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (5 ounce) can solid white albacore tuna in water (such as Bumble Bee®)\n\n\n1 tablespoon mayonnaise\n\n\n1 tablespoon balsamic vinegar\n\n\n1 tablespoon chopped onion\n\n\n1  dill pickle, chopped\n\n\n4 slices sourdough bread\n\n\n2 slices American cheese'}]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix tuna, mayonnaise, balsamic vinegar, onion, and dill pickle together in a bowl."},{"recipe_directions":"Spread tuna mixture over 2 slices of bread. Top with American cheese and remaining 2 slices of bread."},{"recipe_directions":"Cook in a panini press until bread is crispy and cheese is melted, 3 to 4 minutes."}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Seafood"},{"recipe_tags":"Fish"},{"recipe_tags":"Tuna"}]</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"381\nCalories\n\n\n16g \nFat\n\n\n31g \nCarbs\n\n\n28g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699662929-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ycTkdjwOxGN4G5PDap9KvVDN-Mw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(459x265:461x267):format(webp)/3877359-scrambled-peanut-butter-eggs-SunnyDaysNora-4x3-1-1ef9e8a764b34666b2604faabbba0269.jpg"
@@ -986,59 +1279,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/254899/scrambled-peanut-butter-eggs/</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Scrambled Peanut Butter Eggs</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4  eggs\n\n\n2 tablespoons peanut butter\n\n\n2 teaspoons minced fresh ginger\n\n\n2 teaspoons minced fresh garlic\n\n\n1 teaspoon seasoning sauce (such as Maggi®)\n\n\n1 teaspoon sriracha sauce, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4  eggs\n\n\n2 tablespoons peanut butter\n\n\n2 teaspoons minced fresh ginger\n\n\n2 teaspoons minced fresh garlic\n\n\n1 teaspoon seasoning sauce (such as Maggi®)\n\n\n1 teaspoon sriracha sauce, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk eggs, peanut butter, ginger, garlic, seasoning sauce, and sriracha sauce together in a small bowl."},{"recipe_directions":"Heat a nonstick skillet over medium heat. Pour in egg mixture; cook and stir until scrambled and firm, about 5 minutes."}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"},{"recipe_tags":"Scrambled"}]</t>
         </is>
       </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"247\nCalories\n\n\n18g \nFat\n\n\n6g \nCarbs\n\n\n17g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699662937-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/qaGeonmCdqxK15hprmitJEQGoBI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1001083-50264d270a1f47cb956f141f92957287.jpg"
@@ -1051,59 +1340,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/218593/pasta-with-swiss-chard/</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Pasta with Swiss Chard</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"⅓ pound whole-wheat spaghetti\n\n\n2 tablespoons extra-virgin olive oil\n\n\n1 clove garlic, minced\n\n\n1 bunch Swiss chard, chopped\n\n\n1 teaspoon capers\n\n\n  salt and pepper to taste\n\n\n1 teaspoon lemon juice, or to taste (Optional)\n\n\n¼ cup grated Parmesan cheese, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '⅓ pound whole-wheat spaghetti\n\n\n2 tablespoons extra-virgin olive oil\n\n\n1 clove garlic, minced\n\n\n1 bunch Swiss chard, chopped\n\n\n1 teaspoon capers\n\n\n  salt and pepper to taste\n\n\n1 teaspoon lemon juice, or to taste (Optional)\n\n\n¼ cup grated Parmesan cheese, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Fill a large pot with lightly salted water and bring to a rolling boil over high heat. Once the water is boiling, stir in the spaghetti, and return to a boil. Cook the pasta uncovered, stirring occasionally, until the pasta has cooked through, but is still firm to the bite, about 8 minutes. Drain well in a colander set in the sink."},{"recipe_directions":"Meanwhile, heat the olive oil in a large skillet over medium heat. Stir in the garlic, and cook for 1 minute to soften. Add the Swiss chard. Cook and stir until the stems of the chard are tender. You can use some of the hot pasta water to help steam the chard in the covered pan."},{"recipe_directions":"Stir the hot spaghetti into the chard mixture along with the capers. Season to taste with salt and black pepper, and drizzle with lemon juice if desired. Sprinkle with Parmesan cheese to serve."}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Pasta"},{"recipe_tags":"Spaghetti"}]</t>
         </is>
       </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"453\nCalories\n\n\n18g \nFat\n\n\n62g \nCarbs\n\n\n17g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699662946-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/emirD_kjxUnFNQNl7Jf9GW-4LlU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/8564610-easy-chicken-with-mushrooms-and-zucchini-in-cream-sauce-Jakub-Sciora-1x1-1-9287b939b2834396a77b3ad5be7d9f5c.jpg"
@@ -1117,59 +1402,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/260466/easy-chicken-with-mushrooms-and-zucchini-in-cream-sauce/</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Easy Chicken with Mushrooms and Zucchini in Cream Sauce</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon butter\n\n\n2 (5 ounce) boneless, skinless chicken breasts, cubed\n\n\n  salt and freshly ground pepper to taste\n\n\n1 tablespoon olive oil\n\n\n4  green onions, chopped\n\n\n2  green zucchini, cut in half lengthwise and into 1/4-inch slices\n\n\n8 large fresh mushrooms, sliced\n\n\n1 tablespoon all-purpose flour\n\n\n¾ cup heavy whipping cream\n\n\n1 tablespoon chopped fresh parsley"}]</t>
-        </is>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon butter\n\n\n2 (5 ounce) boneless, skinless chicken breasts, cubed\n\n\n  salt and freshly ground pepper to taste\n\n\n1 tablespoon olive oil\n\n\n4  green onions, chopped\n\n\n2  green zucchini, cut in half lengthwise and into 1/4-inch slices\n\n\n8 large fresh mushrooms, sliced\n\n\n1 tablespoon all-purpose flour\n\n\n¾ cup heavy whipping cream\n\n\n1 tablespoon chopped fresh parsley'}]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Melt butter in a skillet over medium heat and cook chicken until slightly browned, stirring frequently, 5 to 7 minutes. Season with salt and pepper and transfer to a plate. Cover with foil or a bowl to keep warm."},{"recipe_directions":"Heat olive oil in the same skillet over medium heat and cook green onions until soft, about 2 minutes. Add zucchini slices and cook until softened, about 5 minutes. Add mushrooms and stir to combine. Return chicken to the skillet and sprinkle with flour. Stir in cream and cook until sauce has thickened, 3 to 5 minutes. Sprinkle with chopped parsley."}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Chicken"},{"recipe_tags":"Chicken Breast"}]</t>
         </is>
       </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"671\nCalories\n\n\n51g \nFat\n\n\n18g \nCarbs\n\n\n40g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699662956-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/F5uzhdsZhWMJ4kHKEBFzU4d26PY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(959x0:961x2):format(webp)/5428404-5820c635c8c74ffb994140fc3d000fea.jpg"
@@ -1182,59 +1463,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/201117/turkey-avocado-panini/</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Turkey Avocado Panini</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n17 mins\n\n\nCook Time:\n8 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n2 \n\n\nYield:\n2 sandwiches"}]</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½  ripe avocado\n\n\n¼ cup mayonnaise\n\n\n2  ciabatta rolls\n\n\n1 tablespoon olive oil, divided\n\n\n2 slices provolone cheese\n\n\n1 cup whole fresh spinach leaves, divided\n\n\n¼ pound thinly sliced mesquite smoked turkey breast\n\n\n2  roasted red peppers, sliced into strips"}]</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½  ripe avocado\n\n\n¼ cup mayonnaise\n\n\n2  ciabatta rolls\n\n\n1 tablespoon olive oil, divided\n\n\n2 slices provolone cheese\n\n\n1 cup whole fresh spinach leaves, divided\n\n\n¼ pound thinly sliced mesquite smoked turkey breast\n\n\n2  roasted red peppers, sliced into strips'}]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mash the avocado and the mayonnaise together in a bowl until thoroughly mixed."},{"recipe_directions":"Preheat a panini sandwich press."},{"recipe_directions":"To make the sandwiches, split the ciabatta rolls in half the flat way, and brush the bottom of each roll with olive oil. Place the bottoms of the rolls onto the panini press, olive oil side down. Place a provolone cheese slice, half the spinach leaves, half the sliced turkey breast, and a sliced roasted red pepper on each sandwich. Spread half of the avocado mixture on the cut surface of each top, and place the top of the roll on the sandwich. Brush the top of the roll with olive oil."},{"recipe_directions":"Close the panini press and cook until the bun is toasted and crisp, with golden brown grill marks, and the cheese has melted, about 5 to 8 minutes."},{"recipe_directions":"Instead of using a panini press, you can use a heavy cast iron skillet or griddle with a heavy weight (such as another heavy pan or even a brick wrapped in aluminum foil). Place the sandwich into the heated skillet or griddle, top with the heavy weight, and push down on the weight to press and crisp the sandwich. When the bread is toasted, flip the sandwich and press the other side."}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"European"},{"recipe_tags":"Italian"}]</t>
         </is>
       </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"723\nCalories\n\n\n51g \nFat\n\n\n42g \nCarbs\n\n\n25g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699662963-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/KrwAoSEbZ0sS8lvEVVpF2LPTsS4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/129012-ff79e2a63ce74ae6861e6f98176a9ced.jpg"
@@ -1247,59 +1524,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/21484/peanut-butter-and-banana-french-toast/</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Peanut Butter and Banana French Toast</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  egg\n\n\n1 dash vanilla extract\n\n\n2 tablespoons creamy peanut butter\n\n\n2 slices bread\n\n\n1 small banana, sliced\n\n\n2 tablespoons butter"}]</t>
-        </is>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  egg\n\n\n1 dash vanilla extract\n\n\n2 tablespoons creamy peanut butter\n\n\n2 slices bread\n\n\n1 small banana, sliced\n\n\n2 tablespoons butter'}]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Lightly beat egg and vanilla together in a shallow bowl."},{"recipe_directions":"Spread 1 tablespoon of peanut butter on top of each slice of bread. Arrange banana slices on top of peanut butter on one slice of bread; place the other slice of bread, peanut butter-side down, on top of the banana to make a sandwich."},{"recipe_directions":"Melt butter in a skillet over medium heat. Dip sandwich into egg mixture until well coated; transfer into the heated skillet. Cook until golden brown on one side, about 2 to 3 minutes; flip and continue cooking until other side is browned, about 2 minutes more. Serve hot."}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"French Toast Recipes"}]</t>
         </is>
       </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"346\nCalories\n\n\n23g \nFat\n\n\n28g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699662976-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/1uq9BZ6EORAHCxs8w9l_rjiRzAs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/853971-7e5f0b3794d3475db0c4b846b955be74.jpg"
@@ -1312,59 +1585,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/185561/fried-bass/</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Fried Bass</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n3 \n\n\nYield:\n6 fillets"}]</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup peanut oil for frying, or as needed\n\n\n3  eggs\n\n\n1 tablespoon water\n\n\n3 (6 ounce) fillets striped bass fillets, skinned\n\n\n1 teaspoon Cajun seasoning\n\n\n1 teaspoon lemon pepper\n\n\n½ cup flour\n\n\n1 (1 ounce) package salt-and-vinegar potato chips, crushed\n\n\n1  lemon, cut into wedges"}]</t>
-        </is>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup peanut oil for frying, or as needed\n\n\n3  eggs\n\n\n1 tablespoon water\n\n\n3 (6 ounce) fillets striped bass fillets, skinned\n\n\n1 teaspoon Cajun seasoning\n\n\n1 teaspoon lemon pepper\n\n\n½ cup flour\n\n\n1 (1 ounce) package salt-and-vinegar potato chips, crushed\n\n\n1  lemon, cut into wedges'}]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a deep-fryer or large saucepan to 350 degrees F (175 degrees C). Whisk eggs and water together in a bowl; set the egg wash aside."},{"recipe_directions":"Sprinkle the bass fillets on both sides with Cajun seasoning and lemon pepper. Dredge the fillets in flour, and shake off any excess. Dip the fillets in the egg wash, then dip fillets in the crushed potato chips."},{"recipe_directions":"Fry the fish in the preheated skillet until lightly browned, about 4 minutes per side. Serve with lemon wedges."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. The exact amount may vary depending on cook time and temperature, ingredient density, and the specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Seafood"},{"recipe_tags":"Fish"}]</t>
         </is>
       </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"466\nCalories\n\n\n22g \nFat\n\n\n26g \nCarbs\n\n\n42g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699662985-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/w-GGiXd_dVvI4Cv53dNqx2gxVBE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/654186-d6bee218784647c58f5ebef91a836dd6.jpg"
@@ -1377,59 +1646,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14568/easy-barbeque-beef-tenderloin-steak/</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Easy Barbeque Beef Tenderloin Steak</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Servings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 (2 inch thick) steaks beef tenderloin\n\n\n1 tablespoon olive oil\n\n\n2 cloves crushed garlic\n\n\n1 teaspoon meat tenderizer"}]</t>
-        </is>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 (2 inch thick) steaks beef tenderloin\n\n\n1 tablespoon olive oil\n\n\n2 cloves crushed garlic\n\n\n1 teaspoon meat tenderizer'}]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Rub meat with olive oil and crushed garlic. Sprinkle with tenderizer. Cover, and refrigerate for 30 minutes."},{"recipe_directions":"Preheat grill for medium high heat."},{"recipe_directions":"Brush grate with oil, and place steaks on the grill. Cook for 5 to 7 minutes per side, or until done."}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"}]</t>
         </is>
       </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"771\nCalories\n\n\n56g \nFat\n\n\n1g \nCarbs\n\n\n61g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1699662992-21</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/GaixE1GlQ_zolrvPiH-DakamRxc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/691788-feff4d9b6627463e8af46a2d36a2d2e8.jpg"
@@ -1442,59 +1707,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/166624/tomato-basil-salmon/</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Tomato Basil Salmon</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n2 \n\n\nYield:\n2 salmon fillets"}]</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 (6 ounce) boneless salmon fillets\n\n\n1 tablespoon dried basil\n\n\n1  tomato, thinly sliced\n\n\n1 tablespoon olive oil\n\n\n2 tablespoons grated Parmesan cheese"}]</t>
-        </is>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 (6 ounce) boneless salmon fillets\n\n\n1 tablespoon dried basil\n\n\n1  tomato, thinly sliced\n\n\n1 tablespoon olive oil\n\n\n2 tablespoons grated Parmesan cheese'}]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 375 degrees F (190 degrees C). Line a baking sheet with a piece of aluminum foil, and spray with nonstick cooking spray. Place the salmon fillets onto the foil, sprinkle with basil, top with tomato slices, drizzle with olive oil, and sprinkle with the Parmesan cheese."},{"recipe_directions":"Bake in the preheated oven until the salmon is opaque in the center, and the Parmesan cheese is lightly browned on top, about 20 minutes."}]</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"European"},{"recipe_tags":"Italian"}]</t>
         </is>
       </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"405\nCalories\n\n\n27g \nFat\n\n\n4g \nCarbs\n\n\n36g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1699663001-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/8-MEWyogx8B_8WzIBJS6esqe_p0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/680248-8f74dfac7b1f4b2b9b33bbd1dfef67c8.jpg"
@@ -1507,59 +1768,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/29942/eggplant-sandwiches/</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Eggplant Sandwiches</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 small eggplant, halved and sliced\n\n\n1 tablespoon olive oil, or as needed\n\n\n¼ cup mayonnaise\n\n\n2 cloves garlic, minced\n\n\n2 (6 inch) French sandwich rolls \n\n\n1 small tomato, sliced\n\n\n½ cup crumbled feta cheese\n\n\n¼ cup chopped fresh basil leaves"}]</t>
-        </is>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 small eggplant, halved and sliced\n\n\n1 tablespoon olive oil, or as needed\n\n\n¼ cup mayonnaise\n\n\n2 cloves garlic, minced\n\n\n2 (6 inch) French sandwich rolls \n\n\n1 small tomato, sliced\n\n\n½ cup crumbled feta cheese\n\n\n¼ cup chopped fresh basil leaves'}]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat your oven's broiler. Brush eggplant slices with olive oil, and place them on a baking sheet or broiling pan. Place the pan about 6 inches from the heat source. Cook under the broiler for 10 minutes, or until tender and toasted."},{"recipe_directions":"Split the French rolls lengthwise, and toast. In a cup or small bowl, stir together the mayonnaise and garlic. Spread this mixture on the toasted bread. Fill the rolls with eggplant slices, tomato, feta cheese and basil leaves."}]</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Sandwich Recipes"}]</t>
         </is>
       </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"802\nCalories\n\n\n40g \nFat\n\n\n91g \nCarbs\n\n\n24g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1699663007-23</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/3m81Z63U84ib9mfvB2zqu2jq598=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/6274187-98cf86c35b0d4f0bb69dad283ac7a8db.jpg"
@@ -1572,59 +1829,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/265304/avocado-toast-with-egg/</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Avocado Toast with Egg</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 teaspoon butter\n\n\n2  eggs\n\n\n2 slices multigrain bread\n\n\n1  ripe avocado, pitted, peeled\n\n\n1 teaspoon lemon juice, or to taste\n\n\n1 pinch cayenne pepper\n\n\n  sea salt to taste\n\n\n  ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 teaspoon butter\n\n\n2  eggs\n\n\n2 slices multigrain bread\n\n\n1  ripe avocado, pitted, peeled\n\n\n1 teaspoon lemon juice, or to taste\n\n\n1 pinch cayenne pepper\n\n\n  sea salt to taste\n\n\n  ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Melt butter in a skillet over medium-low heat. Crack eggs into the skillet side by side and cook until eggs are white on the bottom layer and firm enough to flip, 2 to 3 minutes. Flip eggs, trying not to crack the yolk, and cook until egg reaches desired doneness, 2 to 5 minutes more."},{"recipe_directions":"Meanwhile, toast bread slices to desired doneness, 3 to 5 minutes."},{"recipe_directions":"Mash avocado in a bowl; stir in lemon juice, cayenne pepper, and sea salt. Spread avocado mixture onto toast. Top with fried egg and season with sea salt and pepper."}]</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Sandwich Recipes"}]</t>
         </is>
       </c>
-      <c r="K24" s="1" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"321\nCalories\n\n\n23g \nFat\n\n\n21g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1699663016-24</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/-CyRhgMesvpTTwNQgtFvGw1gD64=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/7443820-rice-cooker-oats-Alexis-Stoner-1x1-1-fae0019866c34d63b9131367a6a5e7af.jpg"
@@ -1638,59 +1891,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/241182/rice-cooker-oats/</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Rice Cooker Oats</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H25" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup quick-cooking oats\n\n\n1 cup water\n\n\n1 cup milk\n\n\n2 tablespoons honey\n\n\n1 tablespoon white sugar\n\n\n1 teaspoon vanilla extract\n\n\n1 pinch salt"}]</t>
-        </is>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup quick-cooking oats\n\n\n1 cup water\n\n\n1 cup milk\n\n\n2 tablespoons honey\n\n\n1 tablespoon white sugar\n\n\n1 teaspoon vanilla extract\n\n\n1 pinch salt'}]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix oats, water, milk, honey, sugar, vanilla extract, and salt together in a rice cooker."},{"recipe_directions":"Cook oats in rice cooker until desired consistency is reached, 10 to 15 minutes."}]</t>
         </is>
       </c>
-      <c r="J25" s="1" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Cereals"},{"recipe_tags":"Oatmeal Recipes"}]</t>
         </is>
       </c>
-      <c r="K25" s="1" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"309\nCalories\n\n\n5g \nFat\n\n\n57g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>1699663025-25</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/nbLSGaZhIMT3aBA0CQob_xHHFoQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/702961-129d6663be924e54a5a62f596544d40c.jpg"
@@ -1703,59 +1952,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/20874/sea-bass-barbecue/</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Sea Bass Barbecue</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H26" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon lemon juice\n\n\n1 teaspoon olive oil\n\n\n1  bay leaf\n\n\nsalt and black pepper to taste\n\n\n1 pound fresh sea bass"}]</t>
-        </is>
-      </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon lemon juice\n\n\n1 teaspoon olive oil\n\n\n1  bay leaf\n\n\nsalt and black pepper to taste\n\n\n1 pound fresh sea bass'}]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an outdoor grill for medium heat and lightly oil the grate."},{"recipe_directions":"Stir together lemon juice, olive oil, bay leaf, salt, and black pepper in a small bowl until combined. Rub onto fish, inside and out."},{"recipe_directions":"Cook on the preheated grill until fish flakes easily with a fork, 8 to 10 minutes, flipping halfway through."}]</t>
         </is>
       </c>
-      <c r="J26" s="1" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Seafood"},{"recipe_tags":"Fish"}]</t>
         </is>
       </c>
-      <c r="K26" s="1" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"243\nCalories\n\n\n7g \nFat\n\n\n1g \nCarbs\n\n\n42g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>1699663037-26</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/gOMO2SkaDd78KRntGN1FcIWtYEg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1023x0:1025x2):format(webp)/8204035-f48f7a4115154cd5a2c018f28ac5b154.jpg"
@@ -1768,59 +2013,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/280590/tuna-steaks-with-garlic-herb-cream-sauce/</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Tuna Steaks with Garlic-Herb Cream Sauce</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H27" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon butter\n\n\n2 (5 ounce) tuna steaks\n\n\n1 pinch salt and ground black pepper to taste\n\n\n⅓ cup fat-free half-and-half\n\n\n¼ cup garlic-and-herb spreadable cheese (such as Alouette®)\n\n\n1 teaspoon lemon juice\n\n\n2 cups fresh spinach"}]</t>
-        </is>
-      </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon butter\n\n\n2 (5 ounce) tuna steaks\n\n\n1 pinch salt and ground black pepper to taste\n\n\n⅓ cup fat-free half-and-half\n\n\n¼ cup garlic-and-herb spreadable cheese (such as Alouette®)\n\n\n1 teaspoon lemon juice\n\n\n2 cups fresh spinach'}]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat a nonstick skillet over medium heat. Melt butter in the hot skillet. Season tuna steaks with salt and pepper and place in the skillet. Cook for 3 to 4 minutes per side. Remove to a serving plate and keep warm."},{"recipe_directions":"Add half-and-half and spreadable cheese to the same skillet and stir until incorporated. Add lemon juice. Set 2 tablespoons of the sauce aside. Add spinach to the remaining sauce in the skillet and cook until wilted, 1 to 2 minutes."},{"recipe_directions":"Divide spinach between 2 plates and place tuna steaks on top. Serve reserved sauce over the steaks."}]</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Seafood"},{"recipe_tags":"Fish"},{"recipe_tags":"Tuna"}]</t>
         </is>
       </c>
-      <c r="K27" s="1" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"304\nCalories\n\n\n13g \nFat\n\n\n7g \nCarbs\n\n\n39g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>1699663046-27</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/iXYSa3FiVW9o47OSO8-gvw9oAn4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(399x0:401x2):format(webp)/1267592-tuna-from-can-to-frying-pan-What-you-cooking-Willis-4x3-1-92db3095e9ce47e3997a24ce55ea5603.jpg"
@@ -1834,59 +2075,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E28" s="1" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/193497/tuna-from-can-to-frying-pan/</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Tuna From Can To Frying Pan</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups broccoli florets\n\n\n2 tablespoons butter\n\n\n  salt and pepper to taste\n\n\n1 (5 ounce) can tuna packed in oil, drained\n\n\n1 tablespoon teriyaki sauce\n\n\n1 pinch garlic powder"}]</t>
-        </is>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups broccoli florets\n\n\n2 tablespoons butter\n\n\n  salt and pepper to taste\n\n\n1 (5 ounce) can tuna packed in oil, drained\n\n\n1 tablespoon teriyaki sauce\n\n\n1 pinch garlic powder'}]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place a steamer insert into a saucepan, and fill with water to just below the bottom of the steamer. Cover, and bring the water to a boil over high heat. Add the broccoli and steam until just tender, 2 to 6 minutes depending on the size of the broccoli florets. Remove the broccoli to a serving bowl and toss with butter, add salt and pepper to taste."},{"recipe_directions":"Heat the tuna, teriyaki sauce, and garlic powder in a skillet over medium heat. Cook and stir until the tuna has heated through, about 5 minutes. Pour the tuna over the broccoli and serve."}]</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Seafood"},{"recipe_tags":"Fish"},{"recipe_tags":"Tuna"}]</t>
         </is>
       </c>
-      <c r="K28" s="1" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"269\nCalories\n\n\n17g \nFat\n\n\n8g \nCarbs\n\n\n22g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>1699663055-28</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/YCnqPq6yLWwV7_i6rQHnTKjjOrM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2772x0:2774x2):format(webp)/9391263-a04133af36cf405db71c157ff4afb7c9.jpg"
@@ -1899,59 +2136,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E29" s="1" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/266467/easy-blackened-swordfish/</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Easy Blackened Swordfish</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n2 \n\n\nYield:\n2 fillets"}]</t>
         </is>
       </c>
-      <c r="H29" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 (6 ounce) fillets swordfish fillets\n\n\n¼ cup melted butter\n\n\n2 tablespoons Creole seasoning"}]</t>
-        </is>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 (6 ounce) fillets swordfish fillets\n\n\n¼ cup melted butter\n\n\n2 tablespoons Creole seasoning'}]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat a cast iron skillet over medium-high heat. Place melted butter in a shallow bowl. Dip fish into the butter and place on a plate. Sprinkle Creole seasoning on top of the fillets and pat it in."},{"recipe_directions":"Place fish in the hot skillet and cook until just starting to blacken, but not burn, about 2 minutes. Flip and cook until blackened on the other side, about 2 minutes more."}]</t>
         </is>
       </c>
-      <c r="J29" s="1" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Seafood"},{"recipe_tags":"Fish"},{"recipe_tags":"Swordfish"}]</t>
         </is>
       </c>
-      <c r="K29" s="1" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"426\nCalories\n\n\n30g \nFat\n\n\n3g \nCarbs\n\n\n34g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>1699663064-29</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/AAfCSpR_AIzArvPnOMT_Uvyy-L8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1801x0:1803x2):format(webp)/8000900-705b618ec998474c80277cc9b74ce92b.jpg"
@@ -1964,59 +2197,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E30" s="1" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/279340/grilled-salmon-with-maple-syrup-and-soy-sauce/</t>
         </is>
       </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Grilled Salmon with Maple Syrup and Soy Sauce</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H30" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 tablespoons soy sauce\n\n\n2 tablespoons pure maple syrup\n\n\n1 clove garlic, minced\n\n\n2 teaspoons minced fresh ginger root\n\n\n½ teaspoon freshly ground black pepper\n\n\n½ teaspoon salt\n\n\n2 (5 ounce) salmon fillets"}]</t>
-        </is>
-      </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 tablespoons soy sauce\n\n\n2 tablespoons pure maple syrup\n\n\n1 clove garlic, minced\n\n\n2 teaspoons minced fresh ginger root\n\n\n½ teaspoon freshly ground black pepper\n\n\n½ teaspoon salt\n\n\n2 (5 ounce) salmon fillets'}]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine soy sauce, maple syrup, garlic, ginger, pepper, and salt in a shallow container with a tight-fitting lid. Place salmon, flesh-side down, in the container and seal. Marinate in the refrigerator for 30 minutes."},{"recipe_directions":"Preheat an outdoor grill for high heat and lightly oil the grate. Once heated, turn down one side to low heat."},{"recipe_directions":"Place salmon, skin-side down, over low heat on the preheated grill and close the lid. Allow to cook, basting once with reserved marinade, until easily flaked with a fork, about 20 minutes. Salmon will easily remove from the grill by sliding a spatula between salmon and the skin."},{"recipe_directions":"Nutrition data for this recipe includes the full amount of marinade ingredients. The actual amount consumed will vary."}]</t>
         </is>
       </c>
-      <c r="J30" s="1" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Main Dishes"},{"recipe_tags":"Seafood Main Dishes"},{"recipe_tags":"Salmon"},{"recipe_tags":"Salmon Fillet Recipes"}]</t>
         </is>
       </c>
-      <c r="K30" s="1" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"271\nCalories\n\n\n9g \nFat\n\n\n16g \nCarbs\n\n\n30g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>1699663071-30</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/wshoS1C4Zi7_B8q5mfMOkVFQ0XA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/6230007-breaded-and-fried-scallops-Greg-4x3-1-d4617399bef54a3ab2ec9eb9d098ace5.jpg"
@@ -2030,59 +2259,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E31" s="1" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/257451/breaded-and-fried-scallops/</t>
         </is>
       </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Breaded and Fried Scallops</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H31" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup Italian-season bread crumbs, or more to taste\n\n\n  salt and ground black pepper to taste\n\n\n1  egg\n\n\n½ cup bay scallops, or more to taste\n\n\n2 tablespoons butter\n\n\n1 tablespoon olive oil\n\n\n1 ½ teaspoons lemon juice"}]</t>
-        </is>
-      </c>
-      <c r="I31" s="1" t="inlineStr">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup Italian-season bread crumbs, or more to taste\n\n\n  salt and ground black pepper to taste\n\n\n1  egg\n\n\n½ cup bay scallops, or more to taste\n\n\n2 tablespoons butter\n\n\n1 tablespoon olive oil\n\n\n1 ½ teaspoons lemon juice'}]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix bread crumbs, salt, and pepper in a resealable plastic bag."},{"recipe_directions":"Whisk egg lightly in a bowl. Dip scallops in egg; place in the bread crumb mixture in the bag. Seal bag and shake until scallops are coated with bread crumbs."},{"recipe_directions":"Bring butter, olive oil, and lemon juice to a simmer in a skillet over medium-high heat. Add breaded scallops; cook, shaking skillet occasionally, until browned, 6 to 7 minutes."},{"recipe_directions":"Use plain bread crumbs if preferred."},{"recipe_directions":"I use bay scallops, but sea scallops would also be good."},{"recipe_directions":"Nutrition data for this recipe includes the full amount of breading ingredients. The actual amount of breading consumed will vary."}]</t>
         </is>
       </c>
-      <c r="J31" s="1" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Seafood"},{"recipe_tags":"Shellfish"},{"recipe_tags":"Scallops"}]</t>
         </is>
       </c>
-      <c r="K31" s="1" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"487\nCalories\n\n\n24g \nFat\n\n\n43g \nCarbs\n\n\n25g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>1699663077-31</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/bdwiPLu33iznzktpg5e_0KWYowA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2216377-grilled-salmon-steaks-italian-style-Mr.-T-4x3-1-cf92e9c11a1b4b0b9c1c98f8ef4fd15d.jpg"
@@ -2096,59 +2321,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E32" s="1" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/157915/grilled-salmon-steaks-italian-style/</t>
         </is>
       </c>
-      <c r="F32" s="1" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Grilled Salmon Steaks Italian-Style</t>
         </is>
       </c>
-      <c r="G32" s="1" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n8 mins\n\n\nTotal Time:\n13 mins\n\n\nServings:\n2 \n\n\nYield:\n2 steaks"}]</t>
         </is>
       </c>
-      <c r="H32" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  salmon steaks\n\n\n1 tablespoon dried Italian seasoning\n\n\n1 teaspoon crumbled dried thyme\n\n\n1 teaspoon crushed dried rosemary\n\n\n  salt and pepper to taste\n\n\n1 tablespoon fresh lime juice"}]</t>
-        </is>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  salmon steaks\n\n\n1 tablespoon dried Italian seasoning\n\n\n1 teaspoon crumbled dried thyme\n\n\n1 teaspoon crushed dried rosemary\n\n\n  salt and pepper to taste\n\n\n1 tablespoon fresh lime juice'}]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an outdoor grill for medium heat and lightly oil grate."},{"recipe_directions":"Season one side of each steak with the Italian seasoning, thyme, rosemary, salt, and pepper."},{"recipe_directions":"Lay the steaks with the seasoned-side down on the prepared grill. Cook on grill until the flesh flakes, turning once, 7 to 8 minutes. Sprinkle each steak with lime juice to serve."}]</t>
         </is>
       </c>
-      <c r="J32" s="1" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"European"},{"recipe_tags":"Italian"}]</t>
         </is>
       </c>
-      <c r="K32" s="1" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"324\nCalories\n\n\n19g \nFat\n\n\n3g \nCarbs\n\n\n34g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>1699663088-32</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/aTS6l8DzUG3KqznwbJqt0I4QzCI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2310x1608:2312x1610):format(webp)/233084-naan-bread-margherita-pizza-with-prosciutto-GOLDMAN-4x3_2364-897068ccbd51492da5e43f8beb74bb78.jpg"
@@ -2162,59 +2383,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E33" s="1" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/233084/naan-bread-margherita-pizza-with-prosciutto/</t>
         </is>
       </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Naan Bread Margherita Pizza with Prosciutto</t>
         </is>
       </c>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n2 \n\n\nYield:\n2 pizzas"}]</t>
         </is>
       </c>
-      <c r="H33" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  naan breads\n\n\n2 teaspoons olive oil, or as needed\n\n\n1  green onion, sliced\n\n\n1 clove garlic, finely chopped\n\n\n8 slices mozzarella cheese\n\n\n1 large roma tomato, thinly sliced\n\n\n  salt and ground black pepper to taste\n\n\n1 slice prosciutto, sliced\n\n\n6 leaves fresh basil, roughly chopped\n\n\n2 tablespoons grated Parmesan cheese"}]</t>
-        </is>
-      </c>
-      <c r="I33" s="1" t="inlineStr">
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  naan breads\n\n\n2 teaspoons olive oil, or as needed\n\n\n1  green onion, sliced\n\n\n1 clove garlic, finely chopped\n\n\n8 slices mozzarella cheese\n\n\n1 large roma tomato, thinly sliced\n\n\n  salt and ground black pepper to taste\n\n\n1 slice prosciutto, sliced\n\n\n6 leaves fresh basil, roughly chopped\n\n\n2 tablespoons grated Parmesan cheese'}]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Line a baking sheet with aluminum foil."},{"recipe_directions":"Place naan breads on the prepared baking sheet; brush each with olive oil. Sprinkle green onion and garlic over each naan. Arrange 4 slices mozzarella cheese onto each naan; top with tomato slices. Season tomatoes with salt and pepper. Top tomato layers with prosciutto, basil, and Parmesan cheese."},{"recipe_directions":"Bake in the preheated oven until pizza is crispy on the edges and cheese is melted, about 8 minutes. Turn on the oven's broiler and broil until cheese is lightly browned and bubbling, about 2 minutes."}]</t>
         </is>
       </c>
-      <c r="J33" s="1" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Indian"}]</t>
         </is>
       </c>
-      <c r="K33" s="1" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"626\nCalories\n\n\n29g \nFat\n\n\n50g \nCarbs\n\n\n41g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>1699663097-33</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D34" s="1" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/k8sq9yj0FYWzUriWYdxAFLzxOKM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1823x0:1825x2):format(webp)/8135677-d7f25fb771b6477aba9d499c9c781997.jpg"
@@ -2227,59 +2444,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E34" s="1" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/280335/air-fryer-fried-rice/</t>
         </is>
       </c>
-      <c r="F34" s="1" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Air Fryer Fried Rice</t>
         </is>
       </c>
-      <c r="G34" s="1" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H34" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups cold cooked rice\n\n\n1 tablespoon sesame oil\n\n\n1 tablespoon water\n\n\n2 teaspoons vegetable oil\n\n\n  salt and ground black pepper to taste\n\n\n1 large egg, beaten\n\n\n1 cup frozen peas and carrots, thawed\n\n\n2 tablespoons soy sauce\n\n\n2 teaspoons Sriracha sauce"}]</t>
-        </is>
-      </c>
-      <c r="I34" s="1" t="inlineStr">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups cold cooked rice\n\n\n1 tablespoon sesame oil\n\n\n1 tablespoon water\n\n\n2 teaspoons vegetable oil\n\n\n  salt and ground black pepper to taste\n\n\n1 large egg, beaten\n\n\n1 cup frozen peas and carrots, thawed\n\n\n2 tablespoons soy sauce\n\n\n2 teaspoons Sriracha sauce'}]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat a 5-quart air fryer to 350 degrees F (175 degrees C) according to the manufacturer's instructions."},{"recipe_directions":"Stir cooked rice, sesame oil, water, vegetable oil, salt, and pepper together in a large bowl until evenly combined. Transfer to a 7-inch round metal cake pan or an air fryer insert. Place the pan into the air fryer basket."},{"recipe_directions":"Place the basket into the preheated air fryer and cook for 10 minutes, stirring halfway through. Pour beaten egg over rice and air-fry until egg is set, about 4 minutes. Add peas and carrots; stir to combine and break up egg. Air-fry for 2 more minutes."},{"recipe_directions":"Meanwhile, whisk soy sauce and Sriracha together in a small bowl; set aside for serving."},{"recipe_directions":"Divide fried rice between two serving bowls and pour sauce over top."}]</t>
         </is>
       </c>
-      <c r="J34" s="1" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Rice"},{"recipe_tags":"Fried Rice Recipes"}]</t>
         </is>
       </c>
-      <c r="K34" s="1" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"392\nCalories\n\n\n15g \nFat\n\n\n55g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>1699663103-34</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D35" s="1" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/NOsXM1uLC0JBh6-d5PYSING5OXM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1823x0:1825x2):format(webp)/5175363-aaea80f375094f779a04cf2788b916a8.jpg"
@@ -2292,59 +2505,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E35" s="1" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/258578/sauteed-shrimp-with-spinach/</t>
         </is>
       </c>
-      <c r="F35" s="1" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Sautéed Shrimp with Spinach</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H35" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups fresh baby spinach\n\n\n1 ½ teaspoons granulated garlic powder\n\n\n20  frozen shrimp, thawed\n\n\n1 teaspoon ground black pepper\n\n\n1 tablespoon olive oil, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups fresh baby spinach\n\n\n1 ½ teaspoons granulated garlic powder\n\n\n20  frozen shrimp, thawed\n\n\n1 teaspoon ground black pepper\n\n\n1 tablespoon olive oil, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place spinach in a large bowl; sprinkle with garlic powder and toss to coat."},{"recipe_directions":"Place shrimp in a second large bowl; sprinkle with black pepper and toss to coat."},{"recipe_directions":"Heat olive oil in a large skillet over medium-high heat. Add shrimp; cook and stir in hot oil until bright pink on the outside and the meat is opaque, about 5 minutes. Add spinach; cook and stir until just wilted, about 1 minute."}]</t>
         </is>
       </c>
-      <c r="J35" s="1" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Stir-Fry"},{"recipe_tags":"Shrimp"}]</t>
         </is>
       </c>
-      <c r="K35" s="1" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"152\nCalories\n\n\n8g \nFat\n\n\n3g \nCarbs\n\n\n17g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>1699663109-35</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/kbIbTruyKiMZG7QzMA5Dp5emb_o=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1898x1766:1900x1768):format(webp)/213654-chicken-asparagus-mushroom-skillet_BG-ALR0522_Skillet_7579-5480d7e789f24464a3e57643bf777817.jpg"
@@ -2358,59 +2567,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E36" s="1" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/213654/chicken-asparagus-and-mushroom-skillet/</t>
         </is>
       </c>
-      <c r="F36" s="1" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Chicken, Asparagus, and Mushroom Skillet</t>
         </is>
       </c>
-      <c r="G36" s="1" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H36" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 tablespoons butter\n\n\n2 tablespoons olive oil\n\n\n1 ½ cloves garlic, minced\n\n\n1 ½ teaspoons lemon juice\n\n\n1 ½ teaspoons white cooking wine\n\n\n½ teaspoon dried parsley\n\n\n½ teaspoon dried basil\n\n\n¼ teaspoon salt\n\n\n⅛ teaspoon dried oregano\n\n\n2 medium skinless, boneless chicken breast halves, sliced\n\n\n½ pound fresh asparagus, trimmed and cut into thirds\n\n\n1 cup sliced fresh mushrooms"}]</t>
-        </is>
-      </c>
-      <c r="I36" s="1" t="inlineStr">
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 tablespoons butter\n\n\n2 tablespoons olive oil\n\n\n1 ½ cloves garlic, minced\n\n\n1 ½ teaspoons lemon juice\n\n\n1 ½ teaspoons white cooking wine\n\n\n½ teaspoon dried parsley\n\n\n½ teaspoon dried basil\n\n\n¼ teaspoon salt\n\n\n⅛ teaspoon dried oregano\n\n\n2 medium skinless, boneless chicken breast halves, sliced\n\n\n½ pound fresh asparagus, trimmed and cut into thirds\n\n\n1 cup sliced fresh mushrooms'}]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Melt butter and olive oil in a skillet over medium-high heat. Stir garlic, lemon juice, wine, parsley, basil, salt, and oregano into hot butter-oil mixture."},{"recipe_directions":"Add chicken; cook and stir until chicken is browned, about 3 minutes. Flip, reduce heat to medium and cook, stirring occasionally, until chicken is no longer pink inside, about 10 more minutes. An instant-read thermometer inserted into the center of chicken should read at least 165 degrees F (74 degrees C)."},{"recipe_directions":"Add asparagus; cook and stir until asparagus is bright green and starting to become tender, about 3 minutes."},{"recipe_directions":"Stir in mushrooms and cook until they release their juices, about 3 more minutes."},{"recipe_directions":"Serve hot over rice or pasta. Enjoy!"},{"recipe_directions":"The magazine version of this recipe may be slightly different than the online version. Please follow directions carefully for whichever version you are using."}]</t>
         </is>
       </c>
-      <c r="J36" s="1" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Chicken"},{"recipe_tags":"Chicken Breast"},{"recipe_tags":"Stir-Fry"}]</t>
         </is>
       </c>
-      <c r="K36" s="1" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"430\nCalories\n\n\n34g \nFat\n\n\n7g \nCarbs\n\n\n27g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>1699663119-36</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/6k30jg2J38MLkrUCmG6Rd7UoMVY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/6929669-cajun-air-fryer-salmon-France-C-4x3-1-b061742cece44c5596f484245a9b56eb.jpg"
@@ -2424,59 +2629,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E37" s="1" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/275343/cajun-air-fryer-salmon/</t>
         </is>
       </c>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Cajun Air Fryer Salmon</t>
         </is>
       </c>
-      <c r="G37" s="1" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H37" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray\n\n\n1 tablespoon Cajun seasoning\n\n\n1 teaspoon brown sugar\n\n\n2 (6 ounce) skin-on salmon fillets"}]</t>
-        </is>
-      </c>
-      <c r="I37" s="1" t="inlineStr">
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n1 tablespoon Cajun seasoning\n\n\n1 teaspoon brown sugar\n\n\n2 (6 ounce) skin-on salmon fillets'}]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients. Preheat the air fryer to 390 degrees F (200 degrees C)."},{"recipe_directions":"Rinse and dry salmon fillets with a paper towel. Mist fillets with cooking spray."},{"recipe_directions":"Mix together Cajun seasoning and brown sugar in a small bowl until combined; spread onto a plate."},{"recipe_directions":"Press fillets, flesh-side down, into seasoning mixture."},{"recipe_directions":"Spray the basket of the air fryer with cooking spray and place salmon fillets skin-side down. Mist salmon again lightly with cooking spray."},{"recipe_directions":"Close the lid and cook in the preheated air fryer for 8 minutes. Remove from the air fryer and let rest for 2 minutes before serving."},{"recipe_directions":"Increase the cook time by 1 to 2 minutes if you prefer your salmon slightly more done. Do not overcook as it will dry out the salmon."}]</t>
         </is>
       </c>
-      <c r="J37" s="1" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Main Dishes"},{"recipe_tags":"Seafood Main Dishes"},{"recipe_tags":"Salmon"},{"recipe_tags":"Salmon Fillet Recipes"}]</t>
         </is>
       </c>
-      <c r="K37" s="1" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"327\nCalories\n\n\n19g \nFat\n\n\n4g \nCarbs\n\n\n34g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>1699663125-37</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/uR2hlWqH3saffsREgiB-YZxD80g=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3383219-e1bc3b2e6a95485a894dfe4f2093b380.jpg"
@@ -2489,59 +2690,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E38" s="1" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/219756/pan-fried-wild-salmon/</t>
         </is>
       </c>
-      <c r="F38" s="1" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Pan-Fried Wild Salmon</t>
         </is>
       </c>
-      <c r="G38" s="1" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H38" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 (3 ounce) fillets salmon, with skin\n\n\n  sea salt to taste\n\n\n2 tablespoons olive oil"}]</t>
-        </is>
-      </c>
-      <c r="I38" s="1" t="inlineStr">
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 (3 ounce) fillets salmon, with skin\n\n\n  sea salt to taste\n\n\n2 tablespoons olive oil'}]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Rinse salmon fillets and pat dry thoroughly with paper towels; season with sea salt."},{"recipe_directions":"Heat olive oil in a large skillet over medium-high heat."},{"recipe_directions":"Cook salmon fillets, skin-side up, in hot oil until flesh is golden brown, 5 to 7 minutes; flip and continue cooking until skin is slightly browned, about 5 minutes more. Use a slotted spatula to remove salmon, leaving drippings in the skillet."},{"recipe_directions":"Remove skin from salmon; fry skin in drippings in the skillet until crispy, 2 to 3 minutes. Serve crispy skin with salmon."}]</t>
         </is>
       </c>
-      <c r="J38" s="1" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Seafood"},{"recipe_tags":"Fish"},{"recipe_tags":"Salmon"}]</t>
         </is>
       </c>
-      <c r="K38" s="1" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"241\nCalories\n\n\n19g \nFat\n\n\n18g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>1699663135-38</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/WZ7Q3FYzAkPfZ7T1_OUgCJeHcH0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/392639-77d971f3016d465980065e8a0d431b0f.jpg"
@@ -2554,59 +2751,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E39" s="1" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/156039/bite-sized-salmon-tikka/</t>
         </is>
       </c>
-      <c r="F39" s="1" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Bite-Sized Salmon Tikka</t>
         </is>
       </c>
-      <c r="G39" s="1" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n5 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H39" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 teaspoons ground red pepper (cayenne)\n\n\n½ teaspoon ground turmeric\n\n\n½ teaspoon salt\n\n\n½ pound wild Pacific salmon fillets, cut into 1-inch cubes\n\n\n2 teaspoons cornstarch\n\n\n½ cup oil for frying"}]</t>
-        </is>
-      </c>
-      <c r="I39" s="1" t="inlineStr">
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 teaspoons ground red pepper (cayenne)\n\n\n½ teaspoon ground turmeric\n\n\n½ teaspoon salt\n\n\n½ pound wild Pacific salmon fillets, cut into 1-inch cubes\n\n\n2 teaspoons cornstarch\n\n\n½ cup oil for frying'}]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix together the cayenne, turmeric, and salt in a bowl. Add the salmon to the bowl and toss to coat. Allow to sit 15 minutes."},{"recipe_directions":"Heat the oil in a skillet over medium-high heat. While the oil is heating, sprinkle the cornstarch over the salmon and again toss to coat."},{"recipe_directions":"Cook the salmon in the heated oil until golden brown, about 1 minute per side."},{"recipe_directions":"Vary the heat and seasoning level according to taste; you can use paprika rather than cayenne for a milder version. I use a full teaspoon of salt."}]</t>
         </is>
       </c>
-      <c r="J39" s="1" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Main Dishes"},{"recipe_tags":"Seafood Main Dishes"},{"recipe_tags":"Salmon"},{"recipe_tags":"Salmon Fillet Recipes"}]</t>
         </is>
       </c>
-      <c r="K39" s="1" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"229\nCalories\n\n\n13g \nFat\n\n\n4g \nCarbs\n\n\n25g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>1699663143-39</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/NVmp-t7FrgeIljjocNJ0x-NfRbE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/Simple-Lemon-Herb-Chicken-2000-610e2f2a1e9a4ba292d775e72f3dc888.jpg"
@@ -2620,59 +2813,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E40" s="1" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/9011/simple-lemon-herb-chicken/</t>
         </is>
       </c>
-      <c r="F40" s="1" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Simple Lemon Herb Chicken</t>
         </is>
       </c>
-      <c r="G40" s="1" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H40" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 (5 ounce) skinless, boneless chicken breast halves\n\n\n1 medium lemon, juiced, divided\n\n\nsalt and freshly ground black pepper to taste\n\n\n1 tablespoon olive oil\n\n\n1 pinch dried oregano\n\n\n2 sprigs fresh parsley, chopped, for garnish"}]</t>
-        </is>
-      </c>
-      <c r="I40" s="1" t="inlineStr">
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 (5 ounce) skinless, boneless chicken breast halves\n\n\n1 medium lemon, juiced, divided\n\n\nsalt and freshly ground black pepper to taste\n\n\n1 tablespoon olive oil\n\n\n1 pinch dried oregano\n\n\n2 sprigs fresh parsley, chopped, for garnish'}]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place chicken in a bowl; pour 1/2 of the lemon juice over chicken and season with salt."},{"recipe_directions":"Heat olive oil in a medium skillet over medium-low heat. Place chicken into hot oil. Add remaining lemon juice and oregano; season with black pepper. Cook chicken until golden brown and the juices run clear, 5 to 10 minutes per side. An instant-read thermometer inserted into the center should read at least 165 degrees F (74 degrees C)."},{"recipe_directions":"Garnish chicken with parsley to serve."},{"recipe_directions":"Please note the differences in ingredient amounts, yield, and method when using the magazine version of this recipe."}]</t>
         </is>
       </c>
-      <c r="J40" s="1" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Chicken"},{"recipe_tags":"Chicken Breast"},{"recipe_tags":"Pan-Fried Chicken"}]</t>
         </is>
       </c>
-      <c r="K40" s="1" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"265\nCalories\n\n\n11g \nFat\n\n\n2g \nCarbs\n\n\n37g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>1699663152-40</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D41" s="1" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/mm9viHiQon2QKBKC5rTxzfNQGP4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/6312813-lemon-panko-crusted-salmon-Chef-Mo-4x3-1-87f39543923849b184fbc527b481e1cd.jpg"
@@ -2686,59 +2875,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E41" s="1" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/233683/lemon-panko-crusted-salmon/</t>
         </is>
       </c>
-      <c r="F41" s="1" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Lemon Panko-Crusted Salmon</t>
         </is>
       </c>
-      <c r="G41" s="1" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H41" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 tablespoons panko bread crumbs\n\n\n1 tablespoon grated Parmesan cheese\n\n\n½ teaspoon lemon-pepper seasoning\n\n\n½ teaspoon dried thyme\n\n\n½ teaspoon dried parsley\n\n\n⅛ teaspoon granulated garlic\n\n\n⅛ teaspoon lemon zest\n\n\n2 (4 ounce) salmon fillets\n\n\n1 tablespoon butter, melted"}]</t>
-        </is>
-      </c>
-      <c r="I41" s="1" t="inlineStr">
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 tablespoons panko bread crumbs\n\n\n1 tablespoon grated Parmesan cheese\n\n\n½ teaspoon lemon-pepper seasoning\n\n\n½ teaspoon dried thyme\n\n\n½ teaspoon dried parsley\n\n\n⅛ teaspoon granulated garlic\n\n\n⅛ teaspoon lemon zest\n\n\n2 (4 ounce) salmon fillets\n\n\n1 tablespoon butter, melted'}]</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 375 degrees F (190 degrees C). Line a baking sheet with aluminum foil."},{"recipe_directions":"Combine panko, Parmesan, lemon-pepper seasoning, thyme, parsley, garlic, and lemon zest in a bowl."},{"recipe_directions":"Place salmon onto the prepared baking sheet. Brush melted butter over top, then sprinkle with panko mixture."},{"recipe_directions":"Bake in the preheated oven until fish flakes easily with a fork, 20 to 25 minutes."}]</t>
         </is>
       </c>
-      <c r="J41" s="1" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Main Dishes"},{"recipe_tags":"Seafood Main Dishes"},{"recipe_tags":"Salmon"},{"recipe_tags":"Baked Salmon Recipes"}]</t>
         </is>
       </c>
-      <c r="K41" s="1" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"298\nCalories\n\n\n18g \nFat\n\n\n15g \nCarbs\n\n\n23g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>1699663163-41</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/3DF91QXy4XjFAeuyYCCznZ76yL0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/87586delicious-grilled-hamburgerssouplovingnicole4x3-2ed0e31a698e48709ed46329ecfad432.jpg"
@@ -2752,59 +2937,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E42" s="1" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/87586/delicious-grilled-hamburgers/</t>
         </is>
       </c>
-      <c r="F42" s="1" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Delicious Grilled Hamburgers</t>
         </is>
       </c>
-      <c r="G42" s="1" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n3 \n\n\nYield:\n3 burgers"}]</t>
         </is>
       </c>
-      <c r="H42" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound lean ground beef\n\n\n1 tablespoon Worcestershire sauce\n\n\n1 tablespoon liquid smoke flavoring\n\n\n1 teaspoon garlic powder\n\n\n1 tablespoon olive oil\n\n\n  seasoned salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I42" s="1" t="inlineStr">
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound lean ground beef\n\n\n1 tablespoon Worcestershire sauce\n\n\n1 tablespoon liquid smoke flavoring\n\n\n1 teaspoon garlic powder\n\n\n1 tablespoon olive oil\n\n\n  seasoned salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an outdoor grill for high heat and lightly oil the grate."},{"recipe_directions":"Combine ground beef, Worcestershire sauce, liquid smoke, and garlic powder in a medium bowl; lightly mix until just combined. With minimal handling, form mixture into three patties. Brush oil onto both sides of each patty, then season with salt."},{"recipe_directions":"Cook patties on the preheated grill until no longer pink in the center, about 5 minutes per side. An instant-read thermometer inserted into the center should read at least 160 degrees F (70 degrees C)."}]</t>
         </is>
       </c>
-      <c r="J42" s="1" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Burger Recipes"},{"recipe_tags":"Hamburgers"}]</t>
         </is>
       </c>
-      <c r="K42" s="1" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"396\nCalories\n\n\n30g \nFat\n\n\n2g \nCarbs\n\n\n28g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>1699663171-42</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/J0R_2ZHt-nTEKp4dNMu0f3k__1w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1159x989:1161x991):format(webp)/30578-filet-mignon-with-rich-balsamic-glaze-VAT-Hero-4x3-1-5f463158cbac4272b68fe730068fe1c6.jpg"
@@ -2818,59 +2999,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E43" s="1" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/30578/filet-mignon-with-rich-balsamic-glaze/</t>
         </is>
       </c>
-      <c r="F43" s="1" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Filet Mignon with Rich Balsamic Glaze</t>
         </is>
       </c>
-      <c r="G43" s="1" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H43" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 (4 ounce) filet mignon steaks\n\n\n½ teaspoon ground black pepper, or to taste\n\n\n  salt to taste\n\n\n¼ cup balsamic vinegar\n\n\n¼ cup dry red wine"}]</t>
-        </is>
-      </c>
-      <c r="I43" s="1" t="inlineStr">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 (4 ounce) filet mignon steaks\n\n\n½ teaspoon ground black pepper, or to taste\n\n\n  salt to taste\n\n\n¼ cup balsamic vinegar\n\n\n¼ cup dry red wine'}]</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"You don't need to go to a steakhouse to make the best filet mignon of your life. This filet mignon with balsamic glaze will quickly become a go-to in your special occasion rotation."},{"recipe_directions":"These are the ingredients you'll need to add to your grocery list:"},{"recipe_directions":"You'll find the full, step-by-step recipe below — but here's a brief overview of what you can expect when you make this balsamic glaze for steak:"},{"recipe_directions":"Looking for some delicious serving inspiration? Explore our collection of 20 Best Side Dishes for Steak. These are a few of the mouthwatering recipes you'll find:"},{"recipe_directions":"\"This was outstanding,\" raves ILuvSoup. \"I made it for a romantic dinner and it turned out so flavorful and delicious — it really enhanced the flavor of the filets! I didn't use a non-stick pan, so I did sear them in a little bit of olive oil, but other than that, I made these as written.\""},{"recipe_directions":"\"Great recipe,\" says Susan Alburtus. \"I doubled the sauce and it came out great. Wonderful, easy recipe that makes you look like a gourmet cook!"},{"recipe_directions":"\"This was delicious,\" according to peachz21. \"I added minced garlic and sautéed mushrooms to the sauce and cooked until it was a thick glaze.\""},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Gather ingredients."},{"recipe_directions":"Sprinkle both sides of steaks with pepper and salt."},{"recipe_directions":"Heat a nonstick skillet over medium-high heat. Sear steaks in the hot pan until browned, about 1 minute per side."},{"recipe_directions":"Reduce heat to medium-low, and pour in balsamic vinegar and red wine. Cover and cook for 4 minutes. Flip steaks and baste with sauce; cover and cook for 4 minutes longer."},{"recipe_directions":"Remove steaks to two warmed plates. Spoon a tablespoon of glaze over each steak and serve immediately."}]</t>
         </is>
       </c>
-      <c r="J43" s="1" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Beef"},{"recipe_tags":"Steaks"},{"recipe_tags":"Filet Mignon Recipes"}]</t>
         </is>
       </c>
-      <c r="K43" s="1" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"367\nCalories\n\n\n26g \nFat\n\n\n6g \nCarbs\n\n\n20g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>1699663179-43</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/cEJwZvC71LV6Gi-tRmdANDciaus=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/36124-pan-seared-red-snapper-ddmfs-3x4_9596-640a4c2ec05b4195a6ae902609ae99f9.jpg"
@@ -2884,59 +3061,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E44" s="1" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/36124/pan-seared-red-snapper/</t>
         </is>
       </c>
-      <c r="F44" s="1" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Pan-Seared Red Snapper</t>
         </is>
       </c>
-      <c r="G44" s="1" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H44" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup chopped green onions\n\n\n1  lemon, juiced\n\n\n2 tablespoons rice wine vinegar\n\n\n1 tablespoon olive oil\n\n\n1 tablespoon honey\n\n\n1 teaspoon Dijon mustard\n\n\n1 teaspoon ground ginger\n\n\n2 (4 ounce) fillets red snapper"}]</t>
-        </is>
-      </c>
-      <c r="I44" s="1" t="inlineStr">
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup chopped green onions\n\n\n1  lemon, juiced\n\n\n2 tablespoons rice wine vinegar\n\n\n1 tablespoon olive oil\n\n\n1 tablespoon honey\n\n\n1 teaspoon Dijon mustard\n\n\n1 teaspoon ground ginger\n\n\n2 (4 ounce) fillets red snapper'}]</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Mix together green onions, lemon juice, vinegar, olive oil, honey, mustard, and ginger in a shallow bowl; set aside."},{"recipe_directions":"Rinse snapper under cold water and pat dry with paper towels."},{"recipe_directions":"Heat a large nonstick skillet over medium heat. Dip snapper into marinade to coat both sides."},{"recipe_directions":"Cook snapper in the hot skillet until opaque and lightly browned, 2 to 3 minutes per side."},{"recipe_directions":"Pour remaining marinade into the skillet. Reduce heat and simmer until fish flakes easily with a fork, 2 to 3 minutes."},{"recipe_directions":"The nutrition data for this recipe includes information for the full amount of the marinade ingredients. Depending on marinating time, ingredients, cooking method, etc., the actual amount of the marinade consumed will vary."}]</t>
         </is>
       </c>
-      <c r="J44" s="1" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"}]</t>
         </is>
       </c>
-      <c r="K44" s="1" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"224\nCalories\n\n\n9g \nFat\n\n\n17g \nCarbs\n\n\n24g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>1699663185-44</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/tLF2JZmqdVHBbuitQWlpif8nWCk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1131362-0395d61464464632b90a8582ef975674.jpg"
@@ -2949,59 +3122,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E45" s="1" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/12827/sauteed-scallops/</t>
         </is>
       </c>
-      <c r="F45" s="1" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Sautéed Scallops</t>
         </is>
       </c>
-      <c r="G45" s="1" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H45" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup butter\n\n\n2 cloves crushed garlic\n\n\n2 sprigs fresh rosemary\n\n\n1 pound scallops"}]</t>
-        </is>
-      </c>
-      <c r="I45" s="1" t="inlineStr">
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup butter\n\n\n2 cloves crushed garlic\n\n\n2 sprigs fresh rosemary\n\n\n1 pound scallops'}]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Melt butter in a medium saucepan over medium-high heat; add crushed garlic and whole sprigs of rosemary."},{"recipe_directions":"Place scallops in skillet and cook until golden brown on one side, about 2 to 3 minutes. Turn scallops over and continue to cook until firm and opaque, about 1 or 2 minutes more."},{"recipe_directions":"Remove crushed garlic and rosemary sprigs from the pan before serving."}]</t>
         </is>
       </c>
-      <c r="J45" s="1" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Seafood"},{"recipe_tags":"Shellfish"},{"recipe_tags":"Scallops"}]</t>
         </is>
       </c>
-      <c r="K45" s="1" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"409\nCalories\n\n\n25g \nFat\n\n\n7g \nCarbs\n\n\n39g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>1699663193-45</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/UjSYGDV1fZOAZ57RSWEAKJlMln4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/259216-instant-pot-frozen-salmon-ddmfs-4x3-10997-36480e4c5ea148729f327f4c53b2bc56.jpg"
@@ -3015,59 +3184,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E46" s="1" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/259216/instant-pot-frozen-salmon/</t>
         </is>
       </c>
-      <c r="F46" s="1" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Instant Pot Frozen Salmon</t>
         </is>
       </c>
-      <c r="G46" s="1" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H46" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup cold water\n\n\n¼ cup lemon juice\n\n\n  cooking spray\n\n\n2  frozen salmon fillets\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I46" s="1" t="inlineStr">
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup cold water\n\n\n¼ cup lemon juice\n\n\n  cooking spray\n\n\n2  frozen salmon fillets\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Pour cold water and lemon juice into a multi-functional pressure cooker (such as Instant Pot). Place a steamer rack inside; coat with cooking spray."},{"recipe_directions":"Place frozen salmon fillets, skin-side down, on the prepared rack. Cover and close the vent."},{"recipe_directions":"Cook on the Steam setting until fish flakes easily with a fork, 3 to 4 minutes. Release pressure carefully using the quick-release method according to manufacturer's instructions, about 5 minutes. Unlock and remove the lid."},{"recipe_directions":"Check salmon for desired doneness. Season with salt and pepper. Cover the pot to keep salmon warm until serving."},{"recipe_directions":"You can add optional toppings — like pesto sauce, butter, seasoned salt, or sweet barbecue sauce — to season the salmon fillets."},{"recipe_directions":"The cook time is for 1-inch-thick fillets; add 1 to 3 more minutes for thicker fillets."}]</t>
         </is>
       </c>
-      <c r="J46" s="1" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Main Dishes"},{"recipe_tags":"Seafood Main Dishes"},{"recipe_tags":"Salmon"},{"recipe_tags":"Salmon Fillet Recipes"}]</t>
         </is>
       </c>
-      <c r="K46" s="1" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"172\nCalories\n\n\n7g \nFat\n\n\n3g \nCarbs\n\n\n25g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>1699663201-46</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Fy95_pYF9liH7ruORmjZooyRTrs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/362677-vegetarian-chickpea-sandwich-filling-Alberta-Rose-1x1-1-e131077da4934ade85613f52bdc0344a.jpg"
@@ -3081,59 +3246,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E47" s="1" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16715/vegetarian-chickpea-sandwich-filling/</t>
         </is>
       </c>
-      <c r="F47" s="1" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Vegetarian Chickpea Sandwich Filling</t>
         </is>
       </c>
-      <c r="G47" s="1" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n3"}]</t>
         </is>
       </c>
-      <c r="H47" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (15.5 ounce) can chickpeas, drained and rinsed\n\n\n1 stalk celery, chopped\n\n\n½  onion, chopped\n\n\n1 tablespoon mayonnaise, or to taste\n\n\n1 tablespoon lemon juice\n\n\n1 teaspoon dried dill weed\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I47" s="1" t="inlineStr">
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (15.5 ounce) can chickpeas, drained and rinsed\n\n\n1 stalk celery, chopped\n\n\n½  onion, chopped\n\n\n1 tablespoon mayonnaise, or to taste\n\n\n1 tablespoon lemon juice\n\n\n1 teaspoon dried dill weed\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mash chickpeas in a medium bowl with a fork. Mix in celery, onion, mayonnaise, lemon juice, and dill until well combined. Season with salt and pepper."},{"recipe_directions":"You can use any raw, chopped vegetable instead of celery."},{"recipe_directions":"You can use your favorite salad dressing instead of mayonnaise."}]</t>
         </is>
       </c>
-      <c r="J47" s="1" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Sandwich Recipes"}]</t>
         </is>
       </c>
-      <c r="K47" s="1" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"259\nCalories\n\n\n6g \nFat\n\n\n44g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>1699663209-47</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DvYq-PD3sPDYZQGV9wgoaeG0enY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(899x485:901x487):format(webp)/5151490-oeufs-cocotte-baked-eggs-AllrecipesPhoto-4x3-1-634c5374fbc74b26a2d3e70ed9e2ba69.jpg"
@@ -3147,59 +3308,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E48" s="1" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/262798/oeufs-cocotte-baked-eggs/</t>
         </is>
       </c>
-      <c r="F48" s="1" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Oeufs Cocotte (Baked Eggs)</t>
         </is>
       </c>
-      <c r="G48" s="1" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H48" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon olive oil, or to taste\n\n\n½ cup finely chopped ham\n\n\n2 tablespoons grated Gruyere cheese\n\n\n½ cup heavy whipping cream\n\n\n  salt and ground black pepper to taste\n\n\n2 large eggs\n\n\n¼ teaspoon chopped fresh chives"}]</t>
-        </is>
-      </c>
-      <c r="I48" s="1" t="inlineStr">
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon olive oil, or to taste\n\n\n½ cup finely chopped ham\n\n\n2 tablespoons grated Gruyere cheese\n\n\n½ cup heavy whipping cream\n\n\n  salt and ground black pepper to taste\n\n\n2 large eggs\n\n\n¼ teaspoon chopped fresh chives'}]</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 375 degrees F (190 degrees C). Grease a small, lidded casserole dish with olive oil. Boil water in a kettle and set aside."},{"recipe_directions":"Spread ham in the bottom of the prepared casserole dish. Sprinkle with 1 tablespoon Gruyère cheese. Pour in cream and season with black pepper. Crack eggs on top, one at a time, making sure yolks remain intact. Sprinkle with remaining 1 tablespoon Gruyère cheese and chives. Season with salt and black pepper."},{"recipe_directions":"Cover the casserole dish and place it into a roasting pan. Pour enough boiled water into the roasting pan so it reaches about halfway up the sides of the casserole dish."},{"recipe_directions":"Bake in the preheated oven for 9 minutes. Uncover and continue baking until whites are just set and yolks are still runny, 3 to 6 more minutes."},{"recipe_directions":"To prevent broken yolks, crack eggs into a glass or cup first, then gently slide them into the casserole dish."},{"recipe_directions":"You can use Comté cheese instead of Gruyère."}]</t>
         </is>
       </c>
-      <c r="J48" s="1" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"}]</t>
         </is>
       </c>
-      <c r="K48" s="1" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"447\nCalories\n\n\n42g \nFat\n\n\n2g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="1" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>1699663217-48</t>
         </is>
       </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D49" s="1" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/EMMnrtT4pBuicarXerQaGmHteu0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/237179-ddmfs-baked-halibut-with-crispy-panko-3X4-2097-211aab6f66064139aa85977d7a6985af.jpg"
@@ -3213,59 +3370,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E49" s="1" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/237179/baked-halibut-with-crispy-panko/</t>
         </is>
       </c>
-      <c r="F49" s="1" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Baked Halibut with Crispy Panko</t>
         </is>
       </c>
-      <c r="G49" s="1" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H49" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup panko bread crumbs\n\n\n1 ½ tablespoons butter, melted\n\n\n¼ cup chicken stock, or as needed\n\n\n2 (8 ounce) fillets halibut\n\n\n1 teaspoon lemon juice\n\n\n  salt and ground black pepper to taste\n\n\n1 tablespoon Dijon mustard"}]</t>
-        </is>
-      </c>
-      <c r="I49" s="1" t="inlineStr">
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup panko bread crumbs\n\n\n1 ½ tablespoons butter, melted\n\n\n¼ cup chicken stock, or as needed\n\n\n2 (8 ounce) fillets halibut\n\n\n1 teaspoon lemon juice\n\n\n  salt and ground black pepper to taste\n\n\n1 tablespoon Dijon mustard'}]</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Stir together panko bread crumbs and melted butter in a bowl until well combined. Set aside."},{"recipe_directions":"Pour enough chicken stock into an oven-proof skillet to cover the bottom; arrange halibut fillets in the skillet."},{"recipe_directions":"Drizzle lemon juice over fillets; season with salt and pepper. Spread a thin layer of Dijon mustard over each fillet; press bread crumb mixture into mustard."},{"recipe_directions":"Bake fish in the skillet in the preheated oven until fillets flake easily with a fork and topping is browned, about 20 minutes."},{"recipe_directions":"If the bread crumbs aren't browned by the time the fish is cooked, turn on the broiler and cook for about 1 minute."}]</t>
         </is>
       </c>
-      <c r="J49" s="1" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Seafood Main Dishes"},{"recipe_tags":"Halibut"}]</t>
         </is>
       </c>
-      <c r="K49" s="1" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"404\nCalories\n\n\n14g \nFat\n\n\n21g \nCarbs\n\n\n51g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>1699663224-49</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D50" s="1" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/6cGk_btLh_G9Wbn1o3wwt68KD68=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/JF_223074_OhMyArticChar_2x3_14774-5b348e6a63bd41e08bb73f0f17c60b4e.jpg"
@@ -3279,59 +3432,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E50" s="1" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/223074/oh-my-arctic-char/</t>
         </is>
       </c>
-      <c r="F50" s="1" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Oh My Arctic Char!</t>
         </is>
       </c>
-      <c r="G50" s="1" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H50" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (10 ounce) fillet arctic char, rinsed and patted dry\n\n\n  sea salt to taste\n\n\n1  lime, zested and juiced\n\n\n¼ cup olive oil\n\n\n¼ cup sherry wine\n\n\n3 sprigs rosemary, leaves stripped\n\n\n2 cloves garlic\n\n\n¼ teaspoon cayenne pepper, or to taste\n\n\n  ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I50" s="1" t="inlineStr">
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (10 ounce) fillet arctic char, rinsed and patted dry\n\n\n  sea salt to taste\n\n\n1  lime, zested and juiced\n\n\n¼ cup olive oil\n\n\n¼ cup sherry wine\n\n\n3 sprigs rosemary, leaves stripped\n\n\n2 cloves garlic\n\n\n¼ teaspoon cayenne pepper, or to taste\n\n\n  ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C). Line a baking dish with aluminum foil."},{"recipe_directions":"Season arctic char with sea salt, place in the prepared baking dish, and sprinkle with lime zest."},{"recipe_directions":"Combine lime juice, olive oil, sherry, rosemary, and garlic in a food processor; pulse until garlic is finely chopped."},{"recipe_directions":"Spread mixture over fish; season with cayenne pepper and black pepper."},{"recipe_directions":"Bake in the preheated oven until fish flakes easily with a fork, 12 to 15 minutes, basting with pan juices about halfway through. When fish is close to being fully cooked, switch the oven to broil. Cook until the top is browned, about 2 minutes."}]</t>
         </is>
       </c>
-      <c r="J50" s="1" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Seafood"},{"recipe_tags":"Fish"}]</t>
         </is>
       </c>
-      <c r="K50" s="1" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"545\nCalories\n\n\n39g \nFat\n\n\n10g \nCarbs\n\n\n32g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>1699663231-50</t>
         </is>
       </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/N6AHhtiqDnrOTaQzJ81bGMLXw3I=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2023030-7ca808c6f09749b09179162e3f320278.jpg"
@@ -3344,59 +3493,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E51" s="1" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/240993/lemon-garlic-chicken/</t>
         </is>
       </c>
-      <c r="F51" s="1" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Lemon Garlic Chicken</t>
         </is>
       </c>
-      <c r="G51" s="1" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n3"}]</t>
         </is>
       </c>
-      <c r="H51" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons butter\n\n\n3  skinless, boneless chicken breast halves\n\n\n1 ½ teaspoons salt\n\n\n1 ½ teaspoons ground black pepper\n\n\n2 tablespoons garlic powder, divided\n\n\n1  lemon, juiced"}]</t>
-        </is>
-      </c>
-      <c r="I51" s="1" t="inlineStr">
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons butter\n\n\n3  skinless, boneless chicken breast halves\n\n\n1 ½ teaspoons salt\n\n\n1 ½ teaspoons ground black pepper\n\n\n2 tablespoons garlic powder, divided\n\n\n1  lemon, juiced'}]</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Melt butter in a skillet over medium-high heat."},{"recipe_directions":"Season chicken with salt and pepper; place in melted butter. Cook chicken, flipping frequently, until browned, about 5 minutes. Sprinkle 1 tablespoon garlic powder over chicken; cook for 2 minutes. Flip and sprinkle remaining 1 tablespoon garlic powder on the second side; cook for 2 minutes."},{"recipe_directions":"Pour lemon juice over each side of chicken and cook until no longer pink in the center, 5 to 10 minutes more. An instant-read thermometer inserted into the center should read at least 165 degrees F (74 degrees C)."}]</t>
         </is>
       </c>
-      <c r="J51" s="1" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Chicken"},{"recipe_tags":"Chicken Breast"},{"recipe_tags":"Pan-Fried Chicken"}]</t>
         </is>
       </c>
-      <c r="K51" s="1" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"214\nCalories\n\n\n11g \nFat\n\n\n5g \nCarbs\n\n\n25g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>1699663238-51</t>
         </is>
       </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C52" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D52" s="1" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/-mw1KEmrUpYePKAJPuu3B4yrfZ0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/6187714-scrambled-eggs-with-chorizo-MangoPickle-4x3-1-678f45d37cc14cffb8b165128cb20c82.jpg"
@@ -3410,59 +3555,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E52" s="1" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/258968/scrambled-eggs-with-chorizo/</t>
         </is>
       </c>
-      <c r="F52" s="1" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>Scrambled Eggs with Chorizo</t>
         </is>
       </c>
-      <c r="G52" s="1" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H52" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray\n\n\n¼ cup Mexican-style chorizo, or more to taste\n\n\n6 large eggs\n\n\n  salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I52" s="1" t="inlineStr">
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n¼ cup Mexican-style chorizo, or more to taste\n\n\n6 large eggs\n\n\n  salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Grease a large nonstick skillet with cooking spray; warm over medium-high heat. Cook and stir chorizo in the hot skillet until browned, about 5 minutes."},{"recipe_directions":"Whisk together eggs and salt in a medium bowl until combined; pour over chorizo in the skillet; cook and stir until eggs are set, about 5 minutes."},{"recipe_directions":"You can add whatever you like to this dish because eggs are very versatile. Don't forget the bacon!"}]</t>
         </is>
       </c>
-      <c r="J52" s="1" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"},{"recipe_tags":"Scrambled"}]</t>
         </is>
       </c>
-      <c r="K52" s="1" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"232\nCalories\n\n\n16g \nFat\n\n\n1g \nCarbs\n\n\n20g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="1" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>1699663246-52</t>
         </is>
       </c>
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C53" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D53" s="1" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/BIH8NoPsz3jyX4ZYVlkz1YnGhvk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1770x1405:1772x1407):format(webp)/JF_241160_CreamyCottageCheeseScrambled_4x3_12902-619d00dc88594ea9b8ed884a108db16d.jpg"
@@ -3476,59 +3617,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E53" s="1" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/241160/creamy-cottage-cheese-scrambled-eggs/</t>
         </is>
       </c>
-      <c r="F53" s="1" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>Creamy Cottage Cheese Scrambled Eggs</t>
         </is>
       </c>
-      <c r="G53" s="1" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H53" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon butter\n\n\n4 large eggs, beaten\n\n\n¼ cup cottage cheese\n\n\n1 teaspoon chopped fresh chives, or to taste (Optional)\n\n\n  ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I53" s="1" t="inlineStr">
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon butter\n\n\n4 large eggs, beaten\n\n\n¼ cup cottage cheese\n\n\n1 teaspoon chopped fresh chives, or to taste (Optional)\n\n\n  ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Melt butter in a skillet over medium heat. Pour beaten eggs into the skillet; let cook undisturbed until the bottom of the eggs begins to firm, 1 to 2 minutes."},{"recipe_directions":"Stir cottage cheese and chives into eggs and season with black pepper."},{"recipe_directions":"Cook and stir until eggs are nearly set, 3 to 4 minutes more."}]</t>
         </is>
       </c>
-      <c r="J53" s="1" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"},{"recipe_tags":"Scrambled"}]</t>
         </is>
       </c>
-      <c r="K53" s="1" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"224\nCalories\n\n\n17g \nFat\n\n\n2g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="1" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>1699663253-53</t>
         </is>
       </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D54" s="1" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/QqsH7e1AYIT6pjzWA_zUlEPmHL0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(399x0:401x2):format(webp)/724943-broiled-scallops-Spunky-Buddy-1x1-1-3a57c176748f4c7a8205f9c06c156e83.jpg"
@@ -3542,59 +3679,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E54" s="1" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/12798/broiled-scallops/</t>
         </is>
       </c>
-      <c r="F54" s="1" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>Broiled Scallops</t>
         </is>
       </c>
-      <c r="G54" s="1" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n6 mins\n\n\nTotal Time:\n11 mins\n\n\nServings:\n3"}]</t>
         </is>
       </c>
-      <c r="H54" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ pounds bay scallops\n\n\n2 tablespoons melted butter, or as needed\n\n\n2 tablespoons lemon juice\n\n\n1 tablespoon garlic salt"}]</t>
-        </is>
-      </c>
-      <c r="I54" s="1" t="inlineStr">
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ pounds bay scallops\n\n\n2 tablespoons melted butter, or as needed\n\n\n2 tablespoons lemon juice\n\n\n1 tablespoon garlic salt'}]</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the broiler to high heat."},{"recipe_directions":"Rinse scallops and place in a shallow baking pan. Sprinkle with 2 tablespoons melted butter, lemon juice, and garlic salt."},{"recipe_directions":"Broil in the preheated broiler until scallops begin to turn golden, 6 to 8 minutes. Remove from the oven and serve with extra melted butter on the side for dipping."}]</t>
         </is>
       </c>
-      <c r="J54" s="1" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Seafood"},{"recipe_tags":"Shellfish"},{"recipe_tags":"Scallops"}]</t>
         </is>
       </c>
-      <c r="K54" s="1" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"273\nCalories\n\n\n9g \nFat\n\n\n7g \nCarbs\n\n\n38g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="1" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>1699663263-54</t>
         </is>
       </c>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C55" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D55" s="1" t="inlineStr">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DwUbqzCN0qrJwpoy1i2ZP9RFTtQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1039x599:1041x601):format(webp)/693200-lemon-rosemary-salmon-Allison-TX-4x3-1-f4f326f735cf4ba19660b6bafe259c57.jpg"
@@ -3608,59 +3741,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E55" s="1" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/80388/lemon-rosemary-salmon/</t>
         </is>
       </c>
-      <c r="F55" s="1" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>Lemon Rosemary Salmon</t>
         </is>
       </c>
-      <c r="G55" s="1" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H55" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  lemon, thinly sliced\n\n\n4 sprigs fresh rosemary\n\n\n2  salmon fillets, bones and skin removed\n\n\n  coarse salt to taste\n\n\n1 tablespoon olive oil, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I55" s="1" t="inlineStr">
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  lemon, thinly sliced\n\n\n4 sprigs fresh rosemary\n\n\n2  salmon fillets, bones and skin removed\n\n\n  coarse salt to taste\n\n\n1 tablespoon olive oil, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C)."},{"recipe_directions":"Arrange half the lemon slices in a single layer in a baking dish. Layer with 2 sprigs rosemary, and top with salmon fillets. Sprinkle salmon with salt, layer with remaining rosemary sprigs, and top with remaining lemon slices. Drizzle with olive oil."},{"recipe_directions":"Bake 20 minutes in the preheated oven, or until fish is easily flaked with a fork."}]</t>
         </is>
       </c>
-      <c r="J55" s="1" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Main Dishes"},{"recipe_tags":"Seafood Main Dishes"},{"recipe_tags":"Salmon"},{"recipe_tags":"Baked Salmon Recipes"}]</t>
         </is>
       </c>
-      <c r="K55" s="1" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"257\nCalories\n\n\n18g \nFat\n\n\n6g \nCarbs\n\n\n21g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="1" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>1699663269-55</t>
         </is>
       </c>
-      <c r="B56" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C56" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D56" s="1" t="inlineStr">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/9rgKbegbdDspyJXISQcLJvuMqrU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(639x0:641x2):format(webp)/image-321-1acc9ef3a3cf44dc93bea4921c0d517a.jpg"
@@ -3674,59 +3803,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E56" s="1" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/257865/easy-chorizo-street-tacos/</t>
         </is>
       </c>
-      <c r="F56" s="1" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>Easy Chorizo Street Tacos</t>
         </is>
       </c>
-      <c r="G56" s="1" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n2 \n\n\nYield:\n2 tacos"}]</t>
         </is>
       </c>
-      <c r="H56" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  chorizo sausage link, casing removed and meat crumbled\n\n\n2 tablespoons chipotle peppers in adobo sauce\n\n\n4  corn tortillas\n\n\n2 tablespoons chopped onion, or to taste\n\n\n2 tablespoons chopped fresh cilantro, or to taste (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I56" s="1" t="inlineStr">
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  chorizo sausage link, casing removed and meat crumbled\n\n\n2 tablespoons chipotle peppers in adobo sauce\n\n\n4  corn tortillas\n\n\n2 tablespoons chopped onion, or to taste\n\n\n2 tablespoons chopped fresh cilantro, or to taste (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine crumbled chorizo and chipotle peppers in adobo sauce in a bowl."},{"recipe_directions":"Heat a skillet over medium-high heat; add chorizo mixture and cook until crisp, 5 to 7 minutes. Transfer to a plate, reserving grease in the skillet."},{"recipe_directions":"Heat tortillas in reserved grease in the skillet over medium heat until warmed, 1 to 2 minutes per side. Stack 2 tortillas for each taco, then fill with chorizo, onion, and cilantro."}]</t>
         </is>
       </c>
-      <c r="J56" s="1" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K56" s="1" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"262\nCalories\n\n\n13g \nFat\n\n\n26g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="1" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>1699663277-56</t>
         </is>
       </c>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C57" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D57" s="1" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/kxxfKhJ-Eb89L_s7pXSRH6qK9dE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2499x0:2501x2):format(webp)/235851-how-to-cook-trout-DDMFS-4x3-eccffaf522f7447c9f7865751624b86a.jpg"
@@ -3740,59 +3865,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E57" s="1" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/235851/how-to-cook-trout/</t>
         </is>
       </c>
-      <c r="F57" s="1" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>How to Cook Trout</t>
         </is>
       </c>
-      <c r="G57" s="1" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H57" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup butter\n\n\n2 (8 ounce) whole trout, butterflied and deboned\n\n\n  salt and freshly ground black pepper to taste\n\n\n2 tablespoons freshly squeezed lemon juice\n\n\n2 tablespoons chopped fresh flat-leaf parsley"}]</t>
-        </is>
-      </c>
-      <c r="I57" s="1" t="inlineStr">
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup butter\n\n\n2 (8 ounce) whole trout, butterflied and deboned\n\n\n  salt and freshly ground black pepper to taste\n\n\n2 tablespoons freshly squeezed lemon juice\n\n\n2 tablespoons chopped fresh flat-leaf parsley'}]</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Melt butter in a saucepan over medium-low heat until butter smells toasted and is golden brown, about 1 minute. Turn off heat."},{"recipe_directions":"Line a baking sheet with a piece of aluminum foil. Place trout onto foil; open trout so skin sides are down. Drizzle each trout with about 1/2 teaspoon melted butter. Generously season with salt and black pepper."},{"recipe_directions":"Move an oven rack to 5 or 6 inches below the heat source and preheat the oven's broiler on high heat."},{"recipe_directions":"Broil trout until opaque and barely firm to the touch, 2 or 3 minutes. Remove from oven."},{"recipe_directions":"Return pan of remaining melted butter over high heat; stir in lemon juice and parsley. Bring butter sauce to a boil; whisk to combine."},{"recipe_directions":"Serve trout on plates and drizzle with butter sauce."}]</t>
         </is>
       </c>
-      <c r="J57" s="1" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Seafood"},{"recipe_tags":"Fish"}]</t>
         </is>
       </c>
-      <c r="K57" s="1" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"470\nCalories\n\n\n33g \nFat\n\n\n2g \nCarbs\n\n\n40g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>1699663283-57</t>
         </is>
       </c>
-      <c r="B58" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C58" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D58" s="1" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/6A60HIp6lwIQu4lCVS6wbZBg3qY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3969819-simple-chicken-mayo-with-parmesan-and-bread-crumbs-Marianne-4x3-1-78374452061544bb86d06c309b87c280.jpg"
@@ -3806,59 +3927,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E58" s="1" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/255305/simple-chicken-mayo-with-parmesan-and-bread-crumbs/</t>
         </is>
       </c>
-      <c r="F58" s="1" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>Simple Chicken Mayo with Parmesan and Bread Crumbs</t>
         </is>
       </c>
-      <c r="G58" s="1" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H58" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  skinless, boneless chicken breasts\n\n\n2 ½ tablespoons grated Parmesan cheese\n\n\n2 tablespoons mayonnaise, or more to taste\n\n\n2 tablespoons bread crumbs, or more to taste\n\n\n1 ½ teaspoons herbes de Provence"}]</t>
-        </is>
-      </c>
-      <c r="I58" s="1" t="inlineStr">
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  skinless, boneless chicken breasts\n\n\n2 ½ tablespoons grated Parmesan cheese\n\n\n2 tablespoons mayonnaise, or more to taste\n\n\n2 tablespoons bread crumbs, or more to taste\n\n\n1 ½ teaspoons herbes de Provence'}]</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 425 degrees F (220 degrees C). Place chicken breasts in a baking pan."},{"recipe_directions":"Mix Parmesan cheese and mayonnaise together in a bowl until well combined; spread evenly over chicken breasts. Coat with bread crumbs and sprinkle with herbes de Provence."},{"recipe_directions":"Bake in the preheated oven until chicken breasts are no longer pink in the center and the juices run clear, 20 to 25 minutes. An instant-read thermometer inserted into the center should read at least 165 degrees F (74 degrees C)."}]</t>
         </is>
       </c>
-      <c r="J58" s="1" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Chicken"},{"recipe_tags":"Chicken Breast"}]</t>
         </is>
       </c>
-      <c r="K58" s="1" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"272\nCalories\n\n\n16g \nFat\n\n\n6g \nCarbs\n\n\n26g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="1" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>1699663289-58</t>
         </is>
       </c>
-      <c r="B59" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C59" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D59" s="1" t="inlineStr">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/MdYARbb9bnO43OMhNuhUY11nGO4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1797x0:1799x2):format(webp)/9187891-efb071571dd949e1b3c5fea556722d97.jpg"
@@ -3871,59 +3988,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E59" s="1" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/280361/french-toast-without-milk/</t>
         </is>
       </c>
-      <c r="F59" s="1" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>French Toast without Milk</t>
         </is>
       </c>
-      <c r="G59" s="1" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H59" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 large eggs\n\n\n1 tablespoon white sugar\n\n\n1 teaspoon vanilla extract\n\n\n½ teaspoon ground cinnamon\n\n\n¼ teaspoon ground nutmeg\n\n\n1 tablespoon unsalted butter\n\n\n4 slices white bread"}]</t>
-        </is>
-      </c>
-      <c r="I59" s="1" t="inlineStr">
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 large eggs\n\n\n1 tablespoon white sugar\n\n\n1 teaspoon vanilla extract\n\n\n½ teaspoon ground cinnamon\n\n\n¼ teaspoon ground nutmeg\n\n\n1 tablespoon unsalted butter\n\n\n4 slices white bread'}]</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Beat eggs in a wide mixing bowl; mix in sugar, vanilla extract, cinnamon, and nutmeg."},{"recipe_directions":"Melt butter in a skillet over medium-low heat."},{"recipe_directions":"Dip 2 slices of bread into egg mixture, ensuring both sides are covered; place in the skillet and cook until golden brown, about 4 minutes per side. Repeat with remaining 2 slices of bread. Serve warm."},{"recipe_directions":"You may need to stir the mixture before dipping the third and fourth slices as the spices may clump together."},{"recipe_directions":"You can use brown sugar instead of white for a change."}]</t>
         </is>
       </c>
-      <c r="J59" s="1" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"French Toast Recipes"}]</t>
         </is>
       </c>
-      <c r="K59" s="1" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"289\nCalories\n\n\n13g \nFat\n\n\n33g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="1" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>1699663295-59</t>
         </is>
       </c>
-      <c r="B60" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C60" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D60" s="1" t="inlineStr">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/QCk-ALrYKF9Ew5Cv8TGLXaE7qfg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1278x0:1280x2):format(webp)/7617251-f11380e6987e48a8b9158c751a985fac.jpg"
@@ -3936,59 +4049,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E60" s="1" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/276006/air-fryer-lobster-tails-with-lemon-garlic-butter/</t>
         </is>
       </c>
-      <c r="F60" s="1" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Air Fryer Lobster Tails with Lemon-Garlic Butter</t>
         </is>
       </c>
-      <c r="G60" s="1" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n2 \n\n\nYield:\n2 lobster tails"}]</t>
         </is>
       </c>
-      <c r="H60" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 (4 ounce) lobster tails\n\n\n4 tablespoons butter\n\n\n1 teaspoon lemon zest\n\n\n1 clove garlic, grated\n\n\n  salt and ground black pepper to taste\n\n\n1 teaspoon chopped fresh parsley\n\n\n2 wedges lemon"}]</t>
-        </is>
-      </c>
-      <c r="I60" s="1" t="inlineStr">
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 (4 ounce) lobster tails\n\n\n4 tablespoons butter\n\n\n1 teaspoon lemon zest\n\n\n1 clove garlic, grated\n\n\n  salt and ground black pepper to taste\n\n\n1 teaspoon chopped fresh parsley\n\n\n2 wedges lemon'}]</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an air fryer to 380 degrees F (195 degrees C)."},{"recipe_directions":"Butterfly lobster tails by cutting lengthwise through the centers of the hard top shells and meat with kitchen shears. Cut to, but not through, the bottoms of the shells. Spread tail halves apart. Place tails in the air fryer basket with lobster meat facing up."},{"recipe_directions":"Melt butter in a small saucepan over medium heat. Add lemon zest and garlic; heat until garlic is fragrant, about 30 seconds."},{"recipe_directions":"Transfer 2 tablespoons of butter mixture to a small bowl; brush this onto lobster tails. Discard any remaining brushed butter to avoid contamination from uncooked lobster. Season lobster with salt and pepper."},{"recipe_directions":"Cook in the preheated air fryer until lobster meat is opaque, 5 to 7 minutes."},{"recipe_directions":"Spoon reserved butter from the saucepan over lobster meat. Top with parsley and serve with lemon wedges."},{"recipe_directions":"You can use frozen lobster tails, just thaw them first before proceeding with instructions."}]</t>
         </is>
       </c>
-      <c r="J60" s="1" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Seafood"},{"recipe_tags":"Shellfish"},{"recipe_tags":"Lobster"}]</t>
         </is>
       </c>
-      <c r="K60" s="1" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"313\nCalories\n\n\n26g \nFat\n\n\n3g \nCarbs\n\n\n18g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="1" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>1699663302-60</t>
         </is>
       </c>
-      <c r="B61" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C61" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D61" s="1" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/75so0NQpVw3ohgSuQDbQWcGMkTQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1353688-34e6ed5e0653413e85995033e316d1e6.jpg"
@@ -4001,59 +4110,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E61" s="1" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/230818/pork-fried-rice/</t>
         </is>
       </c>
-      <c r="F61" s="1" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>Pork Fried Rice</t>
         </is>
       </c>
-      <c r="G61" s="1" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H61" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon butter\n\n\n1 (6 ounce) boneless pork loin chop, cut into small pieces\n\n\n1  green onion, chopped\n\n\n¼ cup chopped carrot\n\n\n¼ cup chopped broccoli\n\n\n1  egg, beaten\n\n\n1 cup cold cooked rice\n\n\n¼ cup frozen peas\n\n\n1 ½ tablespoons soy sauce\n\n\n⅛ teaspoon garlic powder\n\n\n⅛ teaspoon ground ginger"}]</t>
-        </is>
-      </c>
-      <c r="I61" s="1" t="inlineStr">
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon butter\n\n\n1 (6 ounce) boneless pork loin chop, cut into small pieces\n\n\n1  green onion, chopped\n\n\n¼ cup chopped carrot\n\n\n¼ cup chopped broccoli\n\n\n1  egg, beaten\n\n\n1 cup cold cooked rice\n\n\n¼ cup frozen peas\n\n\n1 ½ tablespoons soy sauce\n\n\n⅛ teaspoon garlic powder\n\n\n⅛ teaspoon ground ginger'}]</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Melt butter in a large non-stick skillet over medium heat. Add pork, green onion, carrot, and broccoli; cook and stir until pork is cooked through, 7 to 10 minutes. Transfer pork mixture to a bowl and return skillet to medium heat."},{"recipe_directions":"Stir egg into the skillet and scramble until completely set. Add pork mixture back into the skillet; stir in rice, peas, soy sauce, garlic powder, and ground ginger. Cook and stir until heated through, 7 to 10 minutes."}]</t>
         </is>
       </c>
-      <c r="J61" s="1" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Rice"},{"recipe_tags":"Fried Rice Recipes"}]</t>
         </is>
       </c>
-      <c r="K61" s="1" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"557\nCalories\n\n\n13g \nFat\n\n\n81g \nCarbs\n\n\n26g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="1" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>1699663309-61</t>
         </is>
       </c>
-      <c r="B62" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
-        </is>
-      </c>
-      <c r="C62" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D62" s="1" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15054/everyday-cooking/cooking-for-one/quick-and-easy/</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/w6pTOeElbQIk5N7uOlthh9_DJ_M=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4386478-brown-sugar-ham-steak-Zansheree-Knight-1x1-1-f4b5dbfa13b64ec1af1c083a8194db03.jpg"
@@ -4067,42 +4172,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E62" s="1" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/236432/brown-sugar-ham-steak/</t>
         </is>
       </c>
-      <c r="F62" s="1" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Brown Sugar Ham Steak</t>
         </is>
       </c>
-      <c r="G62" s="1" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H62" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (8 ounce) bone-in fully cooked ham steak\n\n\n5 tablespoons butter, cubed\n\n\n5 tablespoons brown sugar"}]</t>
-        </is>
-      </c>
-      <c r="I62" s="1" t="inlineStr">
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (8 ounce) bone-in fully cooked ham steak\n\n\n5 tablespoons butter, cubed\n\n\n5 tablespoons brown sugar'}]</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cook ham steak in a large skillet over medium heat until browned, 3 to 4 minutes per side."},{"recipe_directions":"Remove ham from skillet; drain off any fat."},{"recipe_directions":"Melt butter in the same skillet over medium-low heat. Stir in brown sugar."},{"recipe_directions":"Return ham to skillet. Cook, turning ham often, until heated through and brown sugar has dissolved, about 10 minutes. Reduce heat if brown sugar/butter mixture starts to pop or splatter."}]</t>
         </is>
       </c>
-      <c r="J62" s="1" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Main Dishes"},{"recipe_tags":"Pork"},{"recipe_tags":"Ham"},{"recipe_tags":"Brown Sugar"}]</t>
         </is>
       </c>
-      <c r="K62" s="1" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"521\nCalories\n\n\n34g \nFat\n\n\n33g \nCarbs\n\n\n22g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>